--- a/Excel/AurasAttrConfig.xlsx
+++ b/Excel/AurasAttrConfig.xlsx
@@ -1073,7 +1073,7 @@
   <dimension ref="A1:K17"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
-      <selection activeCell="E6" sqref="E6"/>
+      <selection activeCell="H14" sqref="H14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25"/>
@@ -1221,7 +1221,7 @@
         <v>202</v>
       </c>
       <c r="H7">
-        <v>100</v>
+        <v>10</v>
       </c>
       <c r="I7" s="1"/>
     </row>
@@ -1242,7 +1242,7 @@
         <v>0</v>
       </c>
       <c r="H8">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="I8" s="1"/>
     </row>
@@ -1263,7 +1263,7 @@
         <v>0</v>
       </c>
       <c r="H9">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="I9" s="1"/>
     </row>

--- a/Excel/AurasAttrConfig.xlsx
+++ b/Excel/AurasAttrConfig.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="28800" windowHeight="11820"/>
+    <workbookView windowWidth="28800" windowHeight="12375"/>
   </bookViews>
   <sheets>
     <sheet name="生成配置" sheetId="2" r:id="rId1"/>
@@ -105,7 +105,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:xr9="http://schemas.microsoft.com/office/spreadsheetml/2016/revision9">
   <numFmts count="4">
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
@@ -134,34 +134,6 @@
       <charset val="134"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <u/>
       <sz val="11"/>
       <color rgb="FF0000FF"/>
@@ -175,14 +147,6 @@
       <color rgb="FF800080"/>
       <name val="等线"/>
       <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="等线"/>
-      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -227,6 +191,21 @@
     <font>
       <b/>
       <sz val="11"/>
+      <color theme="3"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
       <color rgb="FF3F3F3F"/>
       <name val="等线"/>
       <charset val="0"/>
@@ -272,10 +251,36 @@
     </font>
     <font>
       <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color rgb="FF9C6500"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="9"/>
+      <name val="宋体"/>
+      <charset val="134"/>
     </font>
     <font>
       <b/>
@@ -283,11 +288,6 @@
       <name val="宋体"/>
       <charset val="134"/>
     </font>
-    <font>
-      <sz val="9"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-    </font>
   </fonts>
   <fills count="34">
     <fill>
@@ -304,49 +304,133 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="6" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="6" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="6" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -358,121 +442,37 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -495,21 +495,6 @@
       <right/>
       <top/>
       <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
-      </bottom>
       <diagonal/>
     </border>
     <border>
@@ -542,6 +527,21 @@
       <top/>
       <bottom style="medium">
         <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -598,148 +598,148 @@
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="8" borderId="2" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="12" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="12" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="13" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="4" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="5" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="5" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="6" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -754,52 +754,52 @@
   </cellXfs>
   <cellStyles count="49">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
-    <cellStyle name="货币[0]" xfId="1" builtinId="7"/>
-    <cellStyle name="20% - 强调文字颜色 3" xfId="2" builtinId="38"/>
-    <cellStyle name="输入" xfId="3" builtinId="20"/>
-    <cellStyle name="货币" xfId="4" builtinId="4"/>
-    <cellStyle name="千位分隔[0]" xfId="5" builtinId="6"/>
-    <cellStyle name="40% - 强调文字颜色 3" xfId="6" builtinId="39"/>
-    <cellStyle name="差" xfId="7" builtinId="27"/>
-    <cellStyle name="千位分隔" xfId="8" builtinId="3"/>
-    <cellStyle name="60% - 强调文字颜色 3" xfId="9" builtinId="40"/>
-    <cellStyle name="超链接" xfId="10" builtinId="8"/>
-    <cellStyle name="百分比" xfId="11" builtinId="5"/>
-    <cellStyle name="已访问的超链接" xfId="12" builtinId="9"/>
-    <cellStyle name="注释" xfId="13" builtinId="10"/>
-    <cellStyle name="60% - 强调文字颜色 2" xfId="14" builtinId="36"/>
+    <cellStyle name="千位分隔" xfId="1" builtinId="3"/>
+    <cellStyle name="货币" xfId="2" builtinId="4"/>
+    <cellStyle name="百分比" xfId="3" builtinId="5"/>
+    <cellStyle name="千位分隔[0]" xfId="4" builtinId="6"/>
+    <cellStyle name="货币[0]" xfId="5" builtinId="7"/>
+    <cellStyle name="超链接" xfId="6" builtinId="8"/>
+    <cellStyle name="已访问的超链接" xfId="7" builtinId="9"/>
+    <cellStyle name="注释" xfId="8" builtinId="10"/>
+    <cellStyle name="警告文本" xfId="9" builtinId="11"/>
+    <cellStyle name="标题" xfId="10" builtinId="15"/>
+    <cellStyle name="解释性文本" xfId="11" builtinId="53"/>
+    <cellStyle name="标题 1" xfId="12" builtinId="16"/>
+    <cellStyle name="标题 2" xfId="13" builtinId="17"/>
+    <cellStyle name="标题 3" xfId="14" builtinId="18"/>
     <cellStyle name="标题 4" xfId="15" builtinId="19"/>
-    <cellStyle name="警告文本" xfId="16" builtinId="11"/>
-    <cellStyle name="标题" xfId="17" builtinId="15"/>
-    <cellStyle name="解释性文本" xfId="18" builtinId="53"/>
-    <cellStyle name="标题 1" xfId="19" builtinId="16"/>
-    <cellStyle name="标题 2" xfId="20" builtinId="17"/>
-    <cellStyle name="60% - 强调文字颜色 1" xfId="21" builtinId="32"/>
-    <cellStyle name="标题 3" xfId="22" builtinId="18"/>
-    <cellStyle name="60% - 强调文字颜色 4" xfId="23" builtinId="44"/>
-    <cellStyle name="输出" xfId="24" builtinId="21"/>
-    <cellStyle name="计算" xfId="25" builtinId="22"/>
-    <cellStyle name="检查单元格" xfId="26" builtinId="23"/>
-    <cellStyle name="20% - 强调文字颜色 6" xfId="27" builtinId="50"/>
-    <cellStyle name="强调文字颜色 2" xfId="28" builtinId="33"/>
-    <cellStyle name="链接单元格" xfId="29" builtinId="24"/>
-    <cellStyle name="汇总" xfId="30" builtinId="25"/>
-    <cellStyle name="好" xfId="31" builtinId="26"/>
-    <cellStyle name="适中" xfId="32" builtinId="28"/>
-    <cellStyle name="20% - 强调文字颜色 5" xfId="33" builtinId="46"/>
-    <cellStyle name="强调文字颜色 1" xfId="34" builtinId="29"/>
-    <cellStyle name="20% - 强调文字颜色 1" xfId="35" builtinId="30"/>
-    <cellStyle name="40% - 强调文字颜色 1" xfId="36" builtinId="31"/>
-    <cellStyle name="20% - 强调文字颜色 2" xfId="37" builtinId="34"/>
-    <cellStyle name="40% - 强调文字颜色 2" xfId="38" builtinId="35"/>
-    <cellStyle name="强调文字颜色 3" xfId="39" builtinId="37"/>
-    <cellStyle name="强调文字颜色 4" xfId="40" builtinId="41"/>
-    <cellStyle name="20% - 强调文字颜色 4" xfId="41" builtinId="42"/>
-    <cellStyle name="40% - 强调文字颜色 4" xfId="42" builtinId="43"/>
-    <cellStyle name="强调文字颜色 5" xfId="43" builtinId="45"/>
-    <cellStyle name="40% - 强调文字颜色 5" xfId="44" builtinId="47"/>
-    <cellStyle name="60% - 强调文字颜色 5" xfId="45" builtinId="48"/>
-    <cellStyle name="强调文字颜色 6" xfId="46" builtinId="49"/>
+    <cellStyle name="输入" xfId="16" builtinId="20"/>
+    <cellStyle name="输出" xfId="17" builtinId="21"/>
+    <cellStyle name="计算" xfId="18" builtinId="22"/>
+    <cellStyle name="检查单元格" xfId="19" builtinId="23"/>
+    <cellStyle name="链接单元格" xfId="20" builtinId="24"/>
+    <cellStyle name="汇总" xfId="21" builtinId="25"/>
+    <cellStyle name="好" xfId="22" builtinId="26"/>
+    <cellStyle name="差" xfId="23" builtinId="27"/>
+    <cellStyle name="适中" xfId="24" builtinId="28"/>
+    <cellStyle name="强调文字颜色 1" xfId="25" builtinId="29"/>
+    <cellStyle name="20% - 强调文字颜色 1" xfId="26" builtinId="30"/>
+    <cellStyle name="40% - 强调文字颜色 1" xfId="27" builtinId="31"/>
+    <cellStyle name="60% - 强调文字颜色 1" xfId="28" builtinId="32"/>
+    <cellStyle name="强调文字颜色 2" xfId="29" builtinId="33"/>
+    <cellStyle name="20% - 强调文字颜色 2" xfId="30" builtinId="34"/>
+    <cellStyle name="40% - 强调文字颜色 2" xfId="31" builtinId="35"/>
+    <cellStyle name="60% - 强调文字颜色 2" xfId="32" builtinId="36"/>
+    <cellStyle name="强调文字颜色 3" xfId="33" builtinId="37"/>
+    <cellStyle name="20% - 强调文字颜色 3" xfId="34" builtinId="38"/>
+    <cellStyle name="40% - 强调文字颜色 3" xfId="35" builtinId="39"/>
+    <cellStyle name="60% - 强调文字颜色 3" xfId="36" builtinId="40"/>
+    <cellStyle name="强调文字颜色 4" xfId="37" builtinId="41"/>
+    <cellStyle name="20% - 强调文字颜色 4" xfId="38" builtinId="42"/>
+    <cellStyle name="40% - 强调文字颜色 4" xfId="39" builtinId="43"/>
+    <cellStyle name="60% - 强调文字颜色 4" xfId="40" builtinId="44"/>
+    <cellStyle name="强调文字颜色 5" xfId="41" builtinId="45"/>
+    <cellStyle name="20% - 强调文字颜色 5" xfId="42" builtinId="46"/>
+    <cellStyle name="40% - 强调文字颜色 5" xfId="43" builtinId="47"/>
+    <cellStyle name="60% - 强调文字颜色 5" xfId="44" builtinId="48"/>
+    <cellStyle name="强调文字颜色 6" xfId="45" builtinId="49"/>
+    <cellStyle name="20% - 强调文字颜色 6" xfId="46" builtinId="50"/>
     <cellStyle name="40% - 强调文字颜色 6" xfId="47" builtinId="51"/>
     <cellStyle name="60% - 强调文字颜色 6" xfId="48" builtinId="52"/>
   </cellStyles>
@@ -1073,7 +1073,7 @@
   <dimension ref="A1:K17"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
-      <selection activeCell="H14" sqref="H14"/>
+      <selection activeCell="H18" sqref="H18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25"/>
@@ -1239,10 +1239,10 @@
         <v>1</v>
       </c>
       <c r="G8">
-        <v>0</v>
+        <v>8</v>
       </c>
       <c r="H8">
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="I8" s="1"/>
     </row>
@@ -1260,10 +1260,10 @@
         <v>1</v>
       </c>
       <c r="G9">
-        <v>0</v>
+        <v>9</v>
       </c>
       <c r="H9">
-        <v>5</v>
+        <v>30</v>
       </c>
       <c r="I9" s="1"/>
     </row>

--- a/Excel/AurasAttrConfig.xlsx
+++ b/Excel/AurasAttrConfig.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="28800" windowHeight="12375"/>
+    <workbookView windowWidth="28800" windowHeight="12255"/>
   </bookViews>
   <sheets>
     <sheet name="生成配置" sheetId="2" r:id="rId1"/>
@@ -1073,7 +1073,7 @@
   <dimension ref="A1:K17"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
-      <selection activeCell="H18" sqref="H18"/>
+      <selection activeCell="F15" sqref="F15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25"/>
@@ -1233,7 +1233,7 @@
         <v>3</v>
       </c>
       <c r="E8" s="1">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="F8">
         <v>1</v>
@@ -1254,7 +1254,7 @@
         <v>4</v>
       </c>
       <c r="E9" s="1">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="F9">
         <v>1</v>

--- a/Excel/AurasAttrConfig.xlsx
+++ b/Excel/AurasAttrConfig.xlsx
@@ -1073,7 +1073,7 @@
   <dimension ref="A1:K17"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
-      <selection activeCell="F15" sqref="F15"/>
+      <selection activeCell="I20" sqref="I20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25"/>
@@ -1267,8 +1267,26 @@
       </c>
       <c r="I9" s="1"/>
     </row>
-    <row r="10" spans="3:3">
-      <c r="C10"/>
+    <row r="10" customFormat="1" ht="27" customHeight="1" spans="3:9">
+      <c r="C10">
+        <v>501</v>
+      </c>
+      <c r="D10">
+        <v>5</v>
+      </c>
+      <c r="E10" s="1">
+        <v>1</v>
+      </c>
+      <c r="F10">
+        <v>1</v>
+      </c>
+      <c r="G10">
+        <v>203</v>
+      </c>
+      <c r="H10">
+        <v>10</v>
+      </c>
+      <c r="I10" s="1"/>
     </row>
     <row r="11" spans="3:3">
       <c r="C11"/>

--- a/Excel/AurasAttrConfig.xlsx
+++ b/Excel/AurasAttrConfig.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="28800" windowHeight="12255"/>
+    <workbookView windowWidth="28800" windowHeight="12375"/>
   </bookViews>
   <sheets>
     <sheet name="生成配置" sheetId="2" r:id="rId1"/>
@@ -278,12 +278,12 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
       <sz val="9"/>
       <name val="宋体"/>
       <charset val="134"/>
     </font>
     <font>
-      <b/>
       <sz val="9"/>
       <name val="宋体"/>
       <charset val="134"/>
@@ -1070,10 +1070,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:K17"/>
+  <dimension ref="A1:K29"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
-      <selection activeCell="I20" sqref="I20"/>
+      <selection activeCell="I23" sqref="I23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25"/>
@@ -1206,110 +1206,328 @@
     </row>
     <row r="7" customFormat="1" ht="27" customHeight="1" spans="3:9">
       <c r="C7">
+        <v>102</v>
+      </c>
+      <c r="D7">
+        <v>1</v>
+      </c>
+      <c r="E7" s="1">
+        <v>1</v>
+      </c>
+      <c r="F7">
+        <v>2</v>
+      </c>
+      <c r="G7">
         <v>201</v>
       </c>
-      <c r="D7">
-        <v>2</v>
-      </c>
-      <c r="E7" s="1">
-        <v>1</v>
-      </c>
-      <c r="F7">
-        <v>1</v>
-      </c>
-      <c r="G7">
-        <v>202</v>
-      </c>
       <c r="H7">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="I7" s="1"/>
     </row>
     <row r="8" customFormat="1" ht="27" customHeight="1" spans="3:9">
       <c r="C8">
-        <v>301</v>
+        <v>103</v>
       </c>
       <c r="D8">
+        <v>1</v>
+      </c>
+      <c r="E8" s="1">
+        <v>1</v>
+      </c>
+      <c r="F8">
         <v>3</v>
       </c>
-      <c r="E8" s="1">
-        <v>1</v>
-      </c>
-      <c r="F8">
-        <v>1</v>
-      </c>
       <c r="G8">
-        <v>8</v>
+        <v>201</v>
       </c>
       <c r="H8">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="I8" s="1"/>
     </row>
     <row r="9" customFormat="1" ht="27" customHeight="1" spans="3:9">
       <c r="C9">
-        <v>401</v>
+        <v>104</v>
       </c>
       <c r="D9">
+        <v>1</v>
+      </c>
+      <c r="E9" s="1">
+        <v>1</v>
+      </c>
+      <c r="F9">
         <v>4</v>
       </c>
-      <c r="E9" s="1">
-        <v>1</v>
-      </c>
-      <c r="F9">
-        <v>1</v>
-      </c>
       <c r="G9">
-        <v>9</v>
+        <v>201</v>
       </c>
       <c r="H9">
-        <v>30</v>
+        <v>13</v>
       </c>
       <c r="I9" s="1"/>
     </row>
     <row r="10" customFormat="1" ht="27" customHeight="1" spans="3:9">
       <c r="C10">
+        <v>105</v>
+      </c>
+      <c r="D10">
+        <v>1</v>
+      </c>
+      <c r="E10" s="1">
+        <v>1</v>
+      </c>
+      <c r="F10">
+        <v>5</v>
+      </c>
+      <c r="G10">
+        <v>201</v>
+      </c>
+      <c r="H10">
+        <v>14</v>
+      </c>
+      <c r="I10" s="1"/>
+    </row>
+    <row r="11" customFormat="1" ht="27" customHeight="1" spans="3:9">
+      <c r="C11">
+        <v>106</v>
+      </c>
+      <c r="D11">
+        <v>1</v>
+      </c>
+      <c r="E11" s="1">
+        <v>1</v>
+      </c>
+      <c r="F11">
+        <v>6</v>
+      </c>
+      <c r="G11">
+        <v>201</v>
+      </c>
+      <c r="H11">
+        <v>15</v>
+      </c>
+      <c r="I11" s="1"/>
+    </row>
+    <row r="12" customFormat="1" ht="27" customHeight="1" spans="5:9">
+      <c r="E12" s="1"/>
+      <c r="I12" s="1"/>
+    </row>
+    <row r="13" customFormat="1" ht="27" customHeight="1" spans="3:9">
+      <c r="C13">
+        <v>201</v>
+      </c>
+      <c r="D13">
+        <v>2</v>
+      </c>
+      <c r="E13" s="1">
+        <v>1</v>
+      </c>
+      <c r="F13">
+        <v>1</v>
+      </c>
+      <c r="G13">
+        <v>202</v>
+      </c>
+      <c r="H13">
+        <v>10</v>
+      </c>
+      <c r="I13" s="1"/>
+    </row>
+    <row r="14" customFormat="1" ht="27" customHeight="1" spans="3:9">
+      <c r="C14">
+        <v>202</v>
+      </c>
+      <c r="D14">
+        <v>2</v>
+      </c>
+      <c r="E14" s="1">
+        <v>1</v>
+      </c>
+      <c r="F14">
+        <v>2</v>
+      </c>
+      <c r="G14">
+        <v>202</v>
+      </c>
+      <c r="H14">
+        <v>11</v>
+      </c>
+      <c r="I14" s="1"/>
+    </row>
+    <row r="15" customFormat="1" ht="27" customHeight="1" spans="3:9">
+      <c r="C15">
+        <v>203</v>
+      </c>
+      <c r="D15">
+        <v>2</v>
+      </c>
+      <c r="E15" s="1">
+        <v>1</v>
+      </c>
+      <c r="F15">
+        <v>3</v>
+      </c>
+      <c r="G15">
+        <v>202</v>
+      </c>
+      <c r="H15">
+        <v>12</v>
+      </c>
+      <c r="I15" s="1"/>
+    </row>
+    <row r="16" customFormat="1" ht="27" customHeight="1" spans="3:9">
+      <c r="C16">
+        <v>204</v>
+      </c>
+      <c r="D16">
+        <v>2</v>
+      </c>
+      <c r="E16" s="1">
+        <v>1</v>
+      </c>
+      <c r="F16">
+        <v>4</v>
+      </c>
+      <c r="G16">
+        <v>202</v>
+      </c>
+      <c r="H16">
+        <v>13</v>
+      </c>
+      <c r="I16" s="1"/>
+    </row>
+    <row r="17" customFormat="1" ht="27" customHeight="1" spans="3:9">
+      <c r="C17">
+        <v>205</v>
+      </c>
+      <c r="D17">
+        <v>2</v>
+      </c>
+      <c r="E17" s="1">
+        <v>1</v>
+      </c>
+      <c r="F17">
+        <v>5</v>
+      </c>
+      <c r="G17">
+        <v>202</v>
+      </c>
+      <c r="H17">
+        <v>14</v>
+      </c>
+      <c r="I17" s="1"/>
+    </row>
+    <row r="18" customFormat="1" ht="27" customHeight="1" spans="3:9">
+      <c r="C18">
+        <v>206</v>
+      </c>
+      <c r="D18">
+        <v>2</v>
+      </c>
+      <c r="E18" s="1">
+        <v>1</v>
+      </c>
+      <c r="F18">
+        <v>6</v>
+      </c>
+      <c r="G18">
+        <v>202</v>
+      </c>
+      <c r="H18">
+        <v>15</v>
+      </c>
+      <c r="I18" s="1"/>
+    </row>
+    <row r="19" customFormat="1" ht="27" customHeight="1" spans="5:9">
+      <c r="E19" s="1"/>
+      <c r="I19" s="1"/>
+    </row>
+    <row r="20" customFormat="1" ht="27" customHeight="1" spans="3:9">
+      <c r="C20">
+        <v>301</v>
+      </c>
+      <c r="D20">
+        <v>3</v>
+      </c>
+      <c r="E20" s="1">
+        <v>1</v>
+      </c>
+      <c r="F20">
+        <v>1</v>
+      </c>
+      <c r="G20">
+        <v>8</v>
+      </c>
+      <c r="H20">
+        <v>10</v>
+      </c>
+      <c r="I20" s="1"/>
+    </row>
+    <row r="21" customFormat="1" ht="27" customHeight="1" spans="3:9">
+      <c r="C21">
+        <v>401</v>
+      </c>
+      <c r="D21">
+        <v>4</v>
+      </c>
+      <c r="E21" s="1">
+        <v>1</v>
+      </c>
+      <c r="F21">
+        <v>1</v>
+      </c>
+      <c r="G21">
+        <v>9</v>
+      </c>
+      <c r="H21">
+        <v>30</v>
+      </c>
+      <c r="I21" s="1"/>
+    </row>
+    <row r="22" customFormat="1" ht="27" customHeight="1" spans="3:9">
+      <c r="C22">
         <v>501</v>
       </c>
-      <c r="D10">
+      <c r="D22">
         <v>5</v>
       </c>
-      <c r="E10" s="1">
-        <v>1</v>
-      </c>
-      <c r="F10">
-        <v>1</v>
-      </c>
-      <c r="G10">
+      <c r="E22" s="1">
+        <v>1</v>
+      </c>
+      <c r="F22">
+        <v>1</v>
+      </c>
+      <c r="G22">
         <v>203</v>
       </c>
-      <c r="H10">
+      <c r="H22">
         <v>10</v>
       </c>
-      <c r="I10" s="1"/>
-    </row>
-    <row r="11" spans="3:3">
-      <c r="C11"/>
-    </row>
-    <row r="12" spans="3:3">
-      <c r="C12"/>
-    </row>
-    <row r="13" spans="3:3">
-      <c r="C13"/>
-    </row>
-    <row r="14" spans="3:5">
-      <c r="C14"/>
-      <c r="E14"/>
-    </row>
-    <row r="15" spans="3:5">
-      <c r="C15"/>
-      <c r="E15"/>
-    </row>
-    <row r="16" spans="5:5">
-      <c r="E16"/>
-    </row>
-    <row r="17" spans="5:5">
-      <c r="E17"/>
+      <c r="I22" s="1"/>
+    </row>
+    <row r="23" spans="3:3">
+      <c r="C23"/>
+    </row>
+    <row r="24" spans="3:3">
+      <c r="C24"/>
+    </row>
+    <row r="25" spans="3:3">
+      <c r="C25"/>
+    </row>
+    <row r="26" spans="3:5">
+      <c r="C26"/>
+      <c r="E26"/>
+    </row>
+    <row r="27" spans="3:5">
+      <c r="C27"/>
+      <c r="E27"/>
+    </row>
+    <row r="28" spans="5:5">
+      <c r="E28"/>
+    </row>
+    <row r="29" spans="5:5">
+      <c r="E29"/>
     </row>
   </sheetData>
   <dataValidations count="1">

--- a/Excel/AurasAttrConfig.xlsx
+++ b/Excel/AurasAttrConfig.xlsx
@@ -278,12 +278,12 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
       <sz val="9"/>
       <name val="宋体"/>
       <charset val="134"/>
     </font>
     <font>
+      <b/>
       <sz val="9"/>
       <name val="宋体"/>
       <charset val="134"/>
@@ -1070,10 +1070,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:K29"/>
+  <dimension ref="A1:K41"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
-      <selection activeCell="I23" sqref="I23"/>
+    <sheetView tabSelected="1" topLeftCell="B20" workbookViewId="0">
+      <selection activeCell="I32" sqref="I32"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25"/>
@@ -1466,68 +1466,286 @@
     </row>
     <row r="21" customFormat="1" ht="27" customHeight="1" spans="3:9">
       <c r="C21">
-        <v>401</v>
+        <v>302</v>
       </c>
       <c r="D21">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="E21" s="1">
         <v>1</v>
       </c>
       <c r="F21">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="G21">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="H21">
-        <v>30</v>
+        <v>11</v>
       </c>
       <c r="I21" s="1"/>
     </row>
     <row r="22" customFormat="1" ht="27" customHeight="1" spans="3:9">
       <c r="C22">
+        <v>303</v>
+      </c>
+      <c r="D22">
+        <v>3</v>
+      </c>
+      <c r="E22" s="1">
+        <v>1</v>
+      </c>
+      <c r="F22">
+        <v>3</v>
+      </c>
+      <c r="G22">
+        <v>8</v>
+      </c>
+      <c r="H22">
+        <v>12</v>
+      </c>
+      <c r="I22" s="1"/>
+    </row>
+    <row r="23" customFormat="1" ht="27" customHeight="1" spans="3:9">
+      <c r="C23">
+        <v>304</v>
+      </c>
+      <c r="D23">
+        <v>3</v>
+      </c>
+      <c r="E23" s="1">
+        <v>1</v>
+      </c>
+      <c r="F23">
+        <v>4</v>
+      </c>
+      <c r="G23">
+        <v>8</v>
+      </c>
+      <c r="H23">
+        <v>13</v>
+      </c>
+      <c r="I23" s="1"/>
+    </row>
+    <row r="24" customFormat="1" ht="27" customHeight="1" spans="3:9">
+      <c r="C24">
+        <v>305</v>
+      </c>
+      <c r="D24">
+        <v>3</v>
+      </c>
+      <c r="E24" s="1">
+        <v>1</v>
+      </c>
+      <c r="F24">
+        <v>5</v>
+      </c>
+      <c r="G24">
+        <v>8</v>
+      </c>
+      <c r="H24">
+        <v>14</v>
+      </c>
+      <c r="I24" s="1"/>
+    </row>
+    <row r="25" customFormat="1" ht="27" customHeight="1" spans="3:9">
+      <c r="C25">
+        <v>306</v>
+      </c>
+      <c r="D25">
+        <v>3</v>
+      </c>
+      <c r="E25" s="1">
+        <v>1</v>
+      </c>
+      <c r="F25">
+        <v>6</v>
+      </c>
+      <c r="G25">
+        <v>8</v>
+      </c>
+      <c r="H25">
+        <v>15</v>
+      </c>
+      <c r="I25" s="1"/>
+    </row>
+    <row r="26" customFormat="1" ht="27" customHeight="1" spans="5:9">
+      <c r="E26" s="1"/>
+      <c r="I26" s="1"/>
+    </row>
+    <row r="27" customFormat="1" ht="27" customHeight="1" spans="3:9">
+      <c r="C27">
+        <v>401</v>
+      </c>
+      <c r="D27">
+        <v>4</v>
+      </c>
+      <c r="E27" s="1">
+        <v>1</v>
+      </c>
+      <c r="F27">
+        <v>1</v>
+      </c>
+      <c r="G27">
+        <v>9</v>
+      </c>
+      <c r="H27">
+        <v>30</v>
+      </c>
+      <c r="I27" s="1"/>
+    </row>
+    <row r="28" customFormat="1" ht="27" customHeight="1" spans="3:9">
+      <c r="C28">
+        <v>402</v>
+      </c>
+      <c r="D28">
+        <v>4</v>
+      </c>
+      <c r="E28" s="1">
+        <v>1</v>
+      </c>
+      <c r="F28">
+        <v>2</v>
+      </c>
+      <c r="G28">
+        <v>9</v>
+      </c>
+      <c r="H28">
+        <v>33</v>
+      </c>
+      <c r="I28" s="1"/>
+    </row>
+    <row r="29" customFormat="1" ht="27" customHeight="1" spans="3:9">
+      <c r="C29">
+        <v>403</v>
+      </c>
+      <c r="D29">
+        <v>4</v>
+      </c>
+      <c r="E29" s="1">
+        <v>1</v>
+      </c>
+      <c r="F29">
+        <v>3</v>
+      </c>
+      <c r="G29">
+        <v>9</v>
+      </c>
+      <c r="H29">
+        <v>36</v>
+      </c>
+      <c r="I29" s="1"/>
+    </row>
+    <row r="30" customFormat="1" ht="27" customHeight="1" spans="3:9">
+      <c r="C30">
+        <v>404</v>
+      </c>
+      <c r="D30">
+        <v>4</v>
+      </c>
+      <c r="E30" s="1">
+        <v>1</v>
+      </c>
+      <c r="F30">
+        <v>4</v>
+      </c>
+      <c r="G30">
+        <v>9</v>
+      </c>
+      <c r="H30">
+        <v>39</v>
+      </c>
+      <c r="I30" s="1"/>
+    </row>
+    <row r="31" customFormat="1" ht="27" customHeight="1" spans="3:9">
+      <c r="C31">
+        <v>405</v>
+      </c>
+      <c r="D31">
+        <v>4</v>
+      </c>
+      <c r="E31" s="1">
+        <v>1</v>
+      </c>
+      <c r="F31">
+        <v>5</v>
+      </c>
+      <c r="G31">
+        <v>9</v>
+      </c>
+      <c r="H31">
+        <v>42</v>
+      </c>
+      <c r="I31" s="1"/>
+    </row>
+    <row r="32" customFormat="1" ht="27" customHeight="1" spans="3:9">
+      <c r="C32">
+        <v>406</v>
+      </c>
+      <c r="D32">
+        <v>4</v>
+      </c>
+      <c r="E32" s="1">
+        <v>1</v>
+      </c>
+      <c r="F32">
+        <v>6</v>
+      </c>
+      <c r="G32">
+        <v>9</v>
+      </c>
+      <c r="H32">
+        <v>45</v>
+      </c>
+      <c r="I32" s="1"/>
+    </row>
+    <row r="33" customFormat="1" ht="27" customHeight="1" spans="5:9">
+      <c r="E33" s="1"/>
+      <c r="I33" s="1"/>
+    </row>
+    <row r="34" customFormat="1" ht="27" customHeight="1" spans="3:9">
+      <c r="C34">
         <v>501</v>
       </c>
-      <c r="D22">
+      <c r="D34">
         <v>5</v>
       </c>
-      <c r="E22" s="1">
-        <v>1</v>
-      </c>
-      <c r="F22">
-        <v>1</v>
-      </c>
-      <c r="G22">
+      <c r="E34" s="1">
+        <v>1</v>
+      </c>
+      <c r="F34">
+        <v>1</v>
+      </c>
+      <c r="G34">
         <v>203</v>
       </c>
-      <c r="H22">
+      <c r="H34">
         <v>10</v>
       </c>
-      <c r="I22" s="1"/>
-    </row>
-    <row r="23" spans="3:3">
-      <c r="C23"/>
-    </row>
-    <row r="24" spans="3:3">
-      <c r="C24"/>
-    </row>
-    <row r="25" spans="3:3">
-      <c r="C25"/>
-    </row>
-    <row r="26" spans="3:5">
-      <c r="C26"/>
-      <c r="E26"/>
-    </row>
-    <row r="27" spans="3:5">
-      <c r="C27"/>
-      <c r="E27"/>
-    </row>
-    <row r="28" spans="5:5">
-      <c r="E28"/>
-    </row>
-    <row r="29" spans="5:5">
-      <c r="E29"/>
+      <c r="I34" s="1"/>
+    </row>
+    <row r="35" spans="3:3">
+      <c r="C35"/>
+    </row>
+    <row r="36" spans="3:3">
+      <c r="C36"/>
+    </row>
+    <row r="37" spans="3:3">
+      <c r="C37"/>
+    </row>
+    <row r="38" spans="3:5">
+      <c r="C38"/>
+      <c r="E38"/>
+    </row>
+    <row r="39" spans="3:5">
+      <c r="C39"/>
+      <c r="E39"/>
+    </row>
+    <row r="40" spans="5:5">
+      <c r="E40"/>
+    </row>
+    <row r="41" spans="5:5">
+      <c r="E41"/>
     </row>
   </sheetData>
   <dataValidations count="1">

--- a/Excel/AurasAttrConfig.xlsx
+++ b/Excel/AurasAttrConfig.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="28800" windowHeight="12375"/>
+    <workbookView windowWidth="28800" windowHeight="12255"/>
   </bookViews>
   <sheets>
     <sheet name="生成配置" sheetId="2" r:id="rId1"/>
@@ -123,14 +123,14 @@
     <font>
       <sz val="9"/>
       <color theme="1"/>
-      <name val="微软雅黑"/>
+      <name val="等线"/>
       <charset val="134"/>
     </font>
     <font>
       <b/>
       <sz val="9"/>
       <color theme="1"/>
-      <name val="微软雅黑"/>
+      <name val="等线"/>
       <charset val="134"/>
     </font>
     <font>
@@ -278,12 +278,12 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
       <sz val="9"/>
       <name val="宋体"/>
       <charset val="134"/>
     </font>
     <font>
-      <b/>
       <sz val="9"/>
       <name val="宋体"/>
       <charset val="134"/>
@@ -1070,13 +1070,13 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:K41"/>
+  <dimension ref="A1:K84"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B20" workbookViewId="0">
-      <selection activeCell="I32" sqref="I32"/>
+    <sheetView tabSelected="1" topLeftCell="B61" workbookViewId="0">
+      <selection activeCell="G88" sqref="G88"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="16" customHeight="1"/>
   <cols>
     <col min="1" max="1" width="6.875" style="2" customWidth="1"/>
     <col min="2" max="2" width="9" style="2"/>
@@ -1090,9 +1090,10 @@
     <col min="10" max="10" width="8.125" style="2" customWidth="1"/>
     <col min="11" max="11" width="9.625" style="2" customWidth="1"/>
     <col min="12" max="16373" width="9" style="2"/>
+    <col min="16374" max="16384" width="9" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" s="1" customFormat="1" spans="1:11">
+    <row r="1" s="1" customFormat="1" customHeight="1" spans="1:11">
       <c r="A1" s="2"/>
       <c r="B1" s="2"/>
       <c r="G1" s="2"/>
@@ -1100,7 +1101,7 @@
       <c r="J1" s="2"/>
       <c r="K1" s="2"/>
     </row>
-    <row r="2" s="1" customFormat="1" spans="1:11">
+    <row r="2" s="1" customFormat="1" customHeight="1" spans="1:11">
       <c r="A2" s="2"/>
       <c r="B2" s="2"/>
       <c r="G2" s="2"/>
@@ -1108,7 +1109,7 @@
       <c r="J2" s="2"/>
       <c r="K2" s="2"/>
     </row>
-    <row r="3" s="1" customFormat="1" spans="1:11">
+    <row r="3" s="1" customFormat="1" customHeight="1" spans="1:11">
       <c r="A3" s="2"/>
       <c r="B3" s="2"/>
       <c r="C3" s="3" t="s">
@@ -1133,7 +1134,7 @@
       <c r="J3" s="2"/>
       <c r="K3" s="2"/>
     </row>
-    <row r="4" s="1" customFormat="1" spans="1:11">
+    <row r="4" s="1" customFormat="1" customHeight="1" spans="1:11">
       <c r="A4" s="2"/>
       <c r="B4" s="2"/>
       <c r="C4" s="3" t="s">
@@ -1158,7 +1159,7 @@
       <c r="J4" s="2"/>
       <c r="K4" s="2"/>
     </row>
-    <row r="5" s="1" customFormat="1" spans="1:11">
+    <row r="5" s="1" customFormat="1" customHeight="1" spans="1:11">
       <c r="A5" s="2"/>
       <c r="B5" s="2"/>
       <c r="C5" s="3" t="s">
@@ -1183,569 +1184,1504 @@
       <c r="J5" s="2"/>
       <c r="K5" s="2"/>
     </row>
-    <row r="6" customFormat="1" ht="27" customHeight="1" spans="3:9">
-      <c r="C6">
+    <row r="6" s="1" customFormat="1" customHeight="1" spans="3:8">
+      <c r="C6" s="1">
         <v>101</v>
       </c>
-      <c r="D6">
+      <c r="D6" s="1">
         <v>1</v>
       </c>
       <c r="E6" s="1">
         <v>1</v>
       </c>
-      <c r="F6">
-        <v>1</v>
-      </c>
-      <c r="G6">
+      <c r="F6" s="1">
+        <v>1</v>
+      </c>
+      <c r="G6" s="1">
         <v>201</v>
       </c>
-      <c r="H6">
+      <c r="H6" s="1">
         <v>10</v>
       </c>
-      <c r="I6" s="1"/>
-    </row>
-    <row r="7" customFormat="1" ht="27" customHeight="1" spans="3:9">
-      <c r="C7">
+    </row>
+    <row r="7" s="1" customFormat="1" customHeight="1" spans="3:8">
+      <c r="C7" s="1">
         <v>102</v>
       </c>
-      <c r="D7">
+      <c r="D7" s="1">
         <v>1</v>
       </c>
       <c r="E7" s="1">
         <v>1</v>
       </c>
-      <c r="F7">
+      <c r="F7" s="1">
         <v>2</v>
       </c>
-      <c r="G7">
+      <c r="G7" s="1">
         <v>201</v>
       </c>
-      <c r="H7">
+      <c r="H7" s="1">
         <v>11</v>
       </c>
-      <c r="I7" s="1"/>
-    </row>
-    <row r="8" customFormat="1" ht="27" customHeight="1" spans="3:9">
-      <c r="C8">
+    </row>
+    <row r="8" s="1" customFormat="1" customHeight="1" spans="3:8">
+      <c r="C8" s="1">
         <v>103</v>
       </c>
-      <c r="D8">
+      <c r="D8" s="1">
         <v>1</v>
       </c>
       <c r="E8" s="1">
         <v>1</v>
       </c>
-      <c r="F8">
+      <c r="F8" s="1">
         <v>3</v>
       </c>
-      <c r="G8">
+      <c r="G8" s="1">
         <v>201</v>
       </c>
-      <c r="H8">
+      <c r="H8" s="1">
         <v>12</v>
       </c>
-      <c r="I8" s="1"/>
-    </row>
-    <row r="9" customFormat="1" ht="27" customHeight="1" spans="3:9">
-      <c r="C9">
+    </row>
+    <row r="9" s="1" customFormat="1" customHeight="1" spans="3:8">
+      <c r="C9" s="1">
         <v>104</v>
       </c>
-      <c r="D9">
+      <c r="D9" s="1">
         <v>1</v>
       </c>
       <c r="E9" s="1">
         <v>1</v>
       </c>
-      <c r="F9">
+      <c r="F9" s="1">
         <v>4</v>
       </c>
-      <c r="G9">
+      <c r="G9" s="1">
         <v>201</v>
       </c>
-      <c r="H9">
+      <c r="H9" s="1">
         <v>13</v>
       </c>
-      <c r="I9" s="1"/>
-    </row>
-    <row r="10" customFormat="1" ht="27" customHeight="1" spans="3:9">
-      <c r="C10">
+    </row>
+    <row r="10" s="1" customFormat="1" customHeight="1" spans="3:8">
+      <c r="C10" s="1">
         <v>105</v>
       </c>
-      <c r="D10">
+      <c r="D10" s="1">
         <v>1</v>
       </c>
       <c r="E10" s="1">
         <v>1</v>
       </c>
-      <c r="F10">
+      <c r="F10" s="1">
         <v>5</v>
       </c>
-      <c r="G10">
+      <c r="G10" s="1">
         <v>201</v>
       </c>
-      <c r="H10">
+      <c r="H10" s="1">
         <v>14</v>
       </c>
-      <c r="I10" s="1"/>
-    </row>
-    <row r="11" customFormat="1" ht="27" customHeight="1" spans="3:9">
-      <c r="C11">
+    </row>
+    <row r="11" s="1" customFormat="1" customHeight="1" spans="3:8">
+      <c r="C11" s="1">
         <v>106</v>
       </c>
-      <c r="D11">
+      <c r="D11" s="1">
         <v>1</v>
       </c>
       <c r="E11" s="1">
         <v>1</v>
       </c>
-      <c r="F11">
+      <c r="F11" s="1">
         <v>6</v>
       </c>
-      <c r="G11">
+      <c r="G11" s="1">
         <v>201</v>
       </c>
-      <c r="H11">
+      <c r="H11" s="1">
         <v>15</v>
       </c>
-      <c r="I11" s="1"/>
-    </row>
-    <row r="12" customFormat="1" ht="27" customHeight="1" spans="5:9">
-      <c r="E12" s="1"/>
-      <c r="I12" s="1"/>
-    </row>
-    <row r="13" customFormat="1" ht="27" customHeight="1" spans="3:9">
-      <c r="C13">
+    </row>
+    <row r="12" s="1" customFormat="1" customHeight="1" spans="3:8">
+      <c r="C12" s="1">
+        <v>107</v>
+      </c>
+      <c r="D12" s="1">
+        <v>1</v>
+      </c>
+      <c r="E12" s="1">
+        <v>1</v>
+      </c>
+      <c r="F12" s="1">
+        <v>7</v>
+      </c>
+      <c r="G12" s="1">
         <v>201</v>
       </c>
-      <c r="D13">
+      <c r="H12" s="1">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="13" s="1" customFormat="1" customHeight="1" spans="3:8">
+      <c r="C13" s="1">
+        <v>108</v>
+      </c>
+      <c r="D13" s="1">
+        <v>1</v>
+      </c>
+      <c r="E13" s="1">
+        <v>1</v>
+      </c>
+      <c r="F13" s="1">
+        <v>8</v>
+      </c>
+      <c r="G13" s="1">
+        <v>201</v>
+      </c>
+      <c r="H13" s="1">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="14" s="1" customFormat="1" customHeight="1" spans="3:8">
+      <c r="C14" s="1">
+        <v>109</v>
+      </c>
+      <c r="D14" s="1">
+        <v>1</v>
+      </c>
+      <c r="E14" s="1">
+        <v>1</v>
+      </c>
+      <c r="F14" s="1">
+        <v>9</v>
+      </c>
+      <c r="G14" s="1">
+        <v>201</v>
+      </c>
+      <c r="H14" s="1">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="15" s="1" customFormat="1" customHeight="1" spans="3:8">
+      <c r="C15" s="1">
+        <v>110</v>
+      </c>
+      <c r="D15" s="1">
+        <v>1</v>
+      </c>
+      <c r="E15" s="1">
+        <v>1</v>
+      </c>
+      <c r="F15" s="1">
+        <v>10</v>
+      </c>
+      <c r="G15" s="1">
+        <v>201</v>
+      </c>
+      <c r="H15" s="1">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="16" s="1" customFormat="1" customHeight="1" spans="3:8">
+      <c r="C16" s="1">
+        <v>111</v>
+      </c>
+      <c r="D16" s="1">
+        <v>1</v>
+      </c>
+      <c r="E16" s="1">
+        <v>1</v>
+      </c>
+      <c r="F16" s="1">
+        <v>11</v>
+      </c>
+      <c r="G16" s="1">
+        <v>201</v>
+      </c>
+      <c r="H16" s="1">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="17" s="1" customFormat="1" customHeight="1" spans="3:8">
+      <c r="C17" s="1">
+        <v>112</v>
+      </c>
+      <c r="D17" s="1">
+        <v>1</v>
+      </c>
+      <c r="E17" s="1">
+        <v>1</v>
+      </c>
+      <c r="F17" s="1">
+        <v>12</v>
+      </c>
+      <c r="G17" s="1">
+        <v>201</v>
+      </c>
+      <c r="H17" s="1">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="18" s="1" customFormat="1" customHeight="1" spans="3:8">
+      <c r="C18" s="1">
+        <v>113</v>
+      </c>
+      <c r="D18" s="1">
+        <v>1</v>
+      </c>
+      <c r="E18" s="1">
+        <v>1</v>
+      </c>
+      <c r="F18" s="1">
+        <v>13</v>
+      </c>
+      <c r="G18" s="1">
+        <v>201</v>
+      </c>
+      <c r="H18" s="1">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="19" s="1" customFormat="1" customHeight="1" spans="3:8">
+      <c r="C19" s="1">
+        <v>114</v>
+      </c>
+      <c r="D19" s="1">
+        <v>1</v>
+      </c>
+      <c r="E19" s="1">
+        <v>1</v>
+      </c>
+      <c r="F19" s="1">
+        <v>14</v>
+      </c>
+      <c r="G19" s="1">
+        <v>201</v>
+      </c>
+      <c r="H19" s="1">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="20" s="1" customFormat="1" customHeight="1" spans="3:8">
+      <c r="C20" s="1">
+        <v>115</v>
+      </c>
+      <c r="D20" s="1">
+        <v>1</v>
+      </c>
+      <c r="E20" s="1">
+        <v>1</v>
+      </c>
+      <c r="F20" s="1">
+        <v>15</v>
+      </c>
+      <c r="G20" s="1">
+        <v>201</v>
+      </c>
+      <c r="H20" s="1">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="21" s="1" customFormat="1" customHeight="1" spans="3:8">
+      <c r="C21" s="1">
+        <v>116</v>
+      </c>
+      <c r="D21" s="1">
+        <v>1</v>
+      </c>
+      <c r="E21" s="1">
+        <v>1</v>
+      </c>
+      <c r="F21" s="1">
+        <v>16</v>
+      </c>
+      <c r="G21" s="1">
+        <v>201</v>
+      </c>
+      <c r="H21" s="1">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="22" s="1" customFormat="1" customHeight="1"/>
+    <row r="23" s="1" customFormat="1" customHeight="1" spans="3:8">
+      <c r="C23" s="1">
+        <v>201</v>
+      </c>
+      <c r="D23" s="1">
         <v>2</v>
       </c>
-      <c r="E13" s="1">
-        <v>1</v>
-      </c>
-      <c r="F13">
-        <v>1</v>
-      </c>
-      <c r="G13">
+      <c r="E23" s="1">
+        <v>1</v>
+      </c>
+      <c r="F23" s="1">
+        <v>1</v>
+      </c>
+      <c r="G23" s="1">
         <v>202</v>
       </c>
-      <c r="H13">
+      <c r="H23" s="1">
         <v>10</v>
       </c>
-      <c r="I13" s="1"/>
-    </row>
-    <row r="14" customFormat="1" ht="27" customHeight="1" spans="3:9">
-      <c r="C14">
+    </row>
+    <row r="24" s="1" customFormat="1" customHeight="1" spans="3:8">
+      <c r="C24" s="1">
         <v>202</v>
       </c>
-      <c r="D14">
+      <c r="D24" s="1">
         <v>2</v>
       </c>
-      <c r="E14" s="1">
-        <v>1</v>
-      </c>
-      <c r="F14">
+      <c r="E24" s="1">
+        <v>1</v>
+      </c>
+      <c r="F24" s="1">
         <v>2</v>
       </c>
-      <c r="G14">
+      <c r="G24" s="1">
         <v>202</v>
       </c>
-      <c r="H14">
+      <c r="H24" s="1">
         <v>11</v>
       </c>
-      <c r="I14" s="1"/>
-    </row>
-    <row r="15" customFormat="1" ht="27" customHeight="1" spans="3:9">
-      <c r="C15">
+    </row>
+    <row r="25" s="1" customFormat="1" customHeight="1" spans="3:8">
+      <c r="C25" s="1">
         <v>203</v>
       </c>
-      <c r="D15">
+      <c r="D25" s="1">
         <v>2</v>
       </c>
-      <c r="E15" s="1">
-        <v>1</v>
-      </c>
-      <c r="F15">
+      <c r="E25" s="1">
+        <v>1</v>
+      </c>
+      <c r="F25" s="1">
         <v>3</v>
       </c>
-      <c r="G15">
+      <c r="G25" s="1">
         <v>202</v>
       </c>
-      <c r="H15">
+      <c r="H25" s="1">
         <v>12</v>
       </c>
-      <c r="I15" s="1"/>
-    </row>
-    <row r="16" customFormat="1" ht="27" customHeight="1" spans="3:9">
-      <c r="C16">
+    </row>
+    <row r="26" s="1" customFormat="1" customHeight="1" spans="3:8">
+      <c r="C26" s="1">
         <v>204</v>
       </c>
-      <c r="D16">
+      <c r="D26" s="1">
         <v>2</v>
       </c>
-      <c r="E16" s="1">
-        <v>1</v>
-      </c>
-      <c r="F16">
+      <c r="E26" s="1">
+        <v>1</v>
+      </c>
+      <c r="F26" s="1">
         <v>4</v>
       </c>
-      <c r="G16">
+      <c r="G26" s="1">
         <v>202</v>
       </c>
-      <c r="H16">
+      <c r="H26" s="1">
         <v>13</v>
       </c>
-      <c r="I16" s="1"/>
-    </row>
-    <row r="17" customFormat="1" ht="27" customHeight="1" spans="3:9">
-      <c r="C17">
+    </row>
+    <row r="27" s="1" customFormat="1" customHeight="1" spans="3:8">
+      <c r="C27" s="1">
         <v>205</v>
       </c>
-      <c r="D17">
+      <c r="D27" s="1">
         <v>2</v>
       </c>
-      <c r="E17" s="1">
-        <v>1</v>
-      </c>
-      <c r="F17">
+      <c r="E27" s="1">
+        <v>1</v>
+      </c>
+      <c r="F27" s="1">
         <v>5</v>
       </c>
-      <c r="G17">
+      <c r="G27" s="1">
         <v>202</v>
       </c>
-      <c r="H17">
+      <c r="H27" s="1">
         <v>14</v>
       </c>
-      <c r="I17" s="1"/>
-    </row>
-    <row r="18" customFormat="1" ht="27" customHeight="1" spans="3:9">
-      <c r="C18">
+    </row>
+    <row r="28" s="1" customFormat="1" customHeight="1" spans="3:8">
+      <c r="C28" s="1">
         <v>206</v>
       </c>
-      <c r="D18">
+      <c r="D28" s="1">
         <v>2</v>
       </c>
-      <c r="E18" s="1">
-        <v>1</v>
-      </c>
-      <c r="F18">
+      <c r="E28" s="1">
+        <v>1</v>
+      </c>
+      <c r="F28" s="1">
         <v>6</v>
       </c>
-      <c r="G18">
+      <c r="G28" s="1">
         <v>202</v>
       </c>
-      <c r="H18">
+      <c r="H28" s="1">
         <v>15</v>
       </c>
-      <c r="I18" s="1"/>
-    </row>
-    <row r="19" customFormat="1" ht="27" customHeight="1" spans="5:9">
-      <c r="E19" s="1"/>
-      <c r="I19" s="1"/>
-    </row>
-    <row r="20" customFormat="1" ht="27" customHeight="1" spans="3:9">
-      <c r="C20">
+    </row>
+    <row r="29" s="1" customFormat="1" customHeight="1" spans="3:8">
+      <c r="C29" s="1">
+        <v>207</v>
+      </c>
+      <c r="D29" s="1">
+        <v>2</v>
+      </c>
+      <c r="E29" s="1">
+        <v>1</v>
+      </c>
+      <c r="F29" s="1">
+        <v>7</v>
+      </c>
+      <c r="G29" s="1">
+        <v>202</v>
+      </c>
+      <c r="H29" s="1">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="30" s="1" customFormat="1" customHeight="1" spans="3:8">
+      <c r="C30" s="1">
+        <v>208</v>
+      </c>
+      <c r="D30" s="1">
+        <v>2</v>
+      </c>
+      <c r="E30" s="1">
+        <v>1</v>
+      </c>
+      <c r="F30" s="1">
+        <v>8</v>
+      </c>
+      <c r="G30" s="1">
+        <v>202</v>
+      </c>
+      <c r="H30" s="1">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="31" s="1" customFormat="1" customHeight="1" spans="3:8">
+      <c r="C31" s="1">
+        <v>209</v>
+      </c>
+      <c r="D31" s="1">
+        <v>2</v>
+      </c>
+      <c r="E31" s="1">
+        <v>1</v>
+      </c>
+      <c r="F31" s="1">
+        <v>9</v>
+      </c>
+      <c r="G31" s="1">
+        <v>202</v>
+      </c>
+      <c r="H31" s="1">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="32" s="1" customFormat="1" customHeight="1" spans="3:8">
+      <c r="C32" s="1">
+        <v>210</v>
+      </c>
+      <c r="D32" s="1">
+        <v>2</v>
+      </c>
+      <c r="E32" s="1">
+        <v>1</v>
+      </c>
+      <c r="F32" s="1">
+        <v>10</v>
+      </c>
+      <c r="G32" s="1">
+        <v>202</v>
+      </c>
+      <c r="H32" s="1">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="33" s="1" customFormat="1" customHeight="1" spans="3:8">
+      <c r="C33" s="1">
+        <v>211</v>
+      </c>
+      <c r="D33" s="1">
+        <v>2</v>
+      </c>
+      <c r="E33" s="1">
+        <v>1</v>
+      </c>
+      <c r="F33" s="1">
+        <v>11</v>
+      </c>
+      <c r="G33" s="1">
+        <v>202</v>
+      </c>
+      <c r="H33" s="1">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="34" s="1" customFormat="1" customHeight="1" spans="3:8">
+      <c r="C34" s="1">
+        <v>212</v>
+      </c>
+      <c r="D34" s="1">
+        <v>2</v>
+      </c>
+      <c r="E34" s="1">
+        <v>1</v>
+      </c>
+      <c r="F34" s="1">
+        <v>12</v>
+      </c>
+      <c r="G34" s="1">
+        <v>202</v>
+      </c>
+      <c r="H34" s="1">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="35" s="1" customFormat="1" customHeight="1" spans="3:8">
+      <c r="C35" s="1">
+        <v>213</v>
+      </c>
+      <c r="D35" s="1">
+        <v>2</v>
+      </c>
+      <c r="E35" s="1">
+        <v>1</v>
+      </c>
+      <c r="F35" s="1">
+        <v>13</v>
+      </c>
+      <c r="G35" s="1">
+        <v>202</v>
+      </c>
+      <c r="H35" s="1">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="36" s="1" customFormat="1" customHeight="1" spans="3:8">
+      <c r="C36" s="1">
+        <v>214</v>
+      </c>
+      <c r="D36" s="1">
+        <v>2</v>
+      </c>
+      <c r="E36" s="1">
+        <v>1</v>
+      </c>
+      <c r="F36" s="1">
+        <v>14</v>
+      </c>
+      <c r="G36" s="1">
+        <v>202</v>
+      </c>
+      <c r="H36" s="1">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="37" s="1" customFormat="1" customHeight="1" spans="3:8">
+      <c r="C37" s="1">
+        <v>215</v>
+      </c>
+      <c r="D37" s="1">
+        <v>2</v>
+      </c>
+      <c r="E37" s="1">
+        <v>1</v>
+      </c>
+      <c r="F37" s="1">
+        <v>15</v>
+      </c>
+      <c r="G37" s="1">
+        <v>202</v>
+      </c>
+      <c r="H37" s="1">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="38" s="1" customFormat="1" customHeight="1" spans="3:8">
+      <c r="C38" s="1">
+        <v>216</v>
+      </c>
+      <c r="D38" s="1">
+        <v>2</v>
+      </c>
+      <c r="E38" s="1">
+        <v>1</v>
+      </c>
+      <c r="F38" s="1">
+        <v>16</v>
+      </c>
+      <c r="G38" s="1">
+        <v>202</v>
+      </c>
+      <c r="H38" s="1">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="39" s="1" customFormat="1" customHeight="1"/>
+    <row r="40" s="1" customFormat="1" customHeight="1" spans="3:8">
+      <c r="C40" s="1">
         <v>301</v>
       </c>
-      <c r="D20">
+      <c r="D40" s="1">
         <v>3</v>
       </c>
-      <c r="E20" s="1">
-        <v>1</v>
-      </c>
-      <c r="F20">
-        <v>1</v>
-      </c>
-      <c r="G20">
+      <c r="E40" s="1">
+        <v>1</v>
+      </c>
+      <c r="F40" s="1">
+        <v>1</v>
+      </c>
+      <c r="G40" s="1">
         <v>8</v>
       </c>
-      <c r="H20">
+      <c r="H40" s="1">
         <v>10</v>
       </c>
-      <c r="I20" s="1"/>
-    </row>
-    <row r="21" customFormat="1" ht="27" customHeight="1" spans="3:9">
-      <c r="C21">
+    </row>
+    <row r="41" s="1" customFormat="1" customHeight="1" spans="3:8">
+      <c r="C41" s="1">
         <v>302</v>
       </c>
-      <c r="D21">
+      <c r="D41" s="1">
         <v>3</v>
       </c>
-      <c r="E21" s="1">
-        <v>1</v>
-      </c>
-      <c r="F21">
+      <c r="E41" s="1">
+        <v>1</v>
+      </c>
+      <c r="F41" s="1">
         <v>2</v>
       </c>
-      <c r="G21">
+      <c r="G41" s="1">
         <v>8</v>
       </c>
-      <c r="H21">
+      <c r="H41" s="1">
         <v>11</v>
       </c>
-      <c r="I21" s="1"/>
-    </row>
-    <row r="22" customFormat="1" ht="27" customHeight="1" spans="3:9">
-      <c r="C22">
+    </row>
+    <row r="42" s="1" customFormat="1" customHeight="1" spans="3:8">
+      <c r="C42" s="1">
         <v>303</v>
       </c>
-      <c r="D22">
+      <c r="D42" s="1">
         <v>3</v>
       </c>
-      <c r="E22" s="1">
-        <v>1</v>
-      </c>
-      <c r="F22">
+      <c r="E42" s="1">
+        <v>1</v>
+      </c>
+      <c r="F42" s="1">
         <v>3</v>
       </c>
-      <c r="G22">
+      <c r="G42" s="1">
         <v>8</v>
       </c>
-      <c r="H22">
+      <c r="H42" s="1">
         <v>12</v>
       </c>
-      <c r="I22" s="1"/>
-    </row>
-    <row r="23" customFormat="1" ht="27" customHeight="1" spans="3:9">
-      <c r="C23">
+    </row>
+    <row r="43" s="1" customFormat="1" customHeight="1" spans="3:8">
+      <c r="C43" s="1">
         <v>304</v>
       </c>
-      <c r="D23">
+      <c r="D43" s="1">
         <v>3</v>
       </c>
-      <c r="E23" s="1">
-        <v>1</v>
-      </c>
-      <c r="F23">
+      <c r="E43" s="1">
+        <v>1</v>
+      </c>
+      <c r="F43" s="1">
         <v>4</v>
       </c>
-      <c r="G23">
+      <c r="G43" s="1">
         <v>8</v>
       </c>
-      <c r="H23">
+      <c r="H43" s="1">
         <v>13</v>
       </c>
-      <c r="I23" s="1"/>
-    </row>
-    <row r="24" customFormat="1" ht="27" customHeight="1" spans="3:9">
-      <c r="C24">
+    </row>
+    <row r="44" s="1" customFormat="1" customHeight="1" spans="3:8">
+      <c r="C44" s="1">
         <v>305</v>
       </c>
-      <c r="D24">
+      <c r="D44" s="1">
         <v>3</v>
       </c>
-      <c r="E24" s="1">
-        <v>1</v>
-      </c>
-      <c r="F24">
+      <c r="E44" s="1">
+        <v>1</v>
+      </c>
+      <c r="F44" s="1">
         <v>5</v>
       </c>
-      <c r="G24">
+      <c r="G44" s="1">
         <v>8</v>
       </c>
-      <c r="H24">
+      <c r="H44" s="1">
         <v>14</v>
       </c>
-      <c r="I24" s="1"/>
-    </row>
-    <row r="25" customFormat="1" ht="27" customHeight="1" spans="3:9">
-      <c r="C25">
+    </row>
+    <row r="45" s="1" customFormat="1" customHeight="1" spans="3:8">
+      <c r="C45" s="1">
         <v>306</v>
       </c>
-      <c r="D25">
+      <c r="D45" s="1">
         <v>3</v>
       </c>
-      <c r="E25" s="1">
-        <v>1</v>
-      </c>
-      <c r="F25">
+      <c r="E45" s="1">
+        <v>1</v>
+      </c>
+      <c r="F45" s="1">
         <v>6</v>
       </c>
-      <c r="G25">
+      <c r="G45" s="1">
         <v>8</v>
       </c>
-      <c r="H25">
+      <c r="H45" s="1">
         <v>15</v>
       </c>
-      <c r="I25" s="1"/>
-    </row>
-    <row r="26" customFormat="1" ht="27" customHeight="1" spans="5:9">
-      <c r="E26" s="1"/>
-      <c r="I26" s="1"/>
-    </row>
-    <row r="27" customFormat="1" ht="27" customHeight="1" spans="3:9">
-      <c r="C27">
+    </row>
+    <row r="46" s="1" customFormat="1" customHeight="1" spans="3:8">
+      <c r="C46" s="1">
+        <v>307</v>
+      </c>
+      <c r="D46" s="1">
+        <v>3</v>
+      </c>
+      <c r="E46" s="1">
+        <v>1</v>
+      </c>
+      <c r="F46" s="1">
+        <v>7</v>
+      </c>
+      <c r="G46" s="1">
+        <v>8</v>
+      </c>
+      <c r="H46" s="1">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="47" s="1" customFormat="1" customHeight="1" spans="3:8">
+      <c r="C47" s="1">
+        <v>308</v>
+      </c>
+      <c r="D47" s="1">
+        <v>3</v>
+      </c>
+      <c r="E47" s="1">
+        <v>1</v>
+      </c>
+      <c r="F47" s="1">
+        <v>8</v>
+      </c>
+      <c r="G47" s="1">
+        <v>8</v>
+      </c>
+      <c r="H47" s="1">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="48" s="1" customFormat="1" customHeight="1" spans="3:8">
+      <c r="C48" s="1">
+        <v>309</v>
+      </c>
+      <c r="D48" s="1">
+        <v>3</v>
+      </c>
+      <c r="E48" s="1">
+        <v>1</v>
+      </c>
+      <c r="F48" s="1">
+        <v>9</v>
+      </c>
+      <c r="G48" s="1">
+        <v>8</v>
+      </c>
+      <c r="H48" s="1">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="49" s="1" customFormat="1" customHeight="1" spans="3:8">
+      <c r="C49" s="1">
+        <v>310</v>
+      </c>
+      <c r="D49" s="1">
+        <v>3</v>
+      </c>
+      <c r="E49" s="1">
+        <v>1</v>
+      </c>
+      <c r="F49" s="1">
+        <v>10</v>
+      </c>
+      <c r="G49" s="1">
+        <v>8</v>
+      </c>
+      <c r="H49" s="1">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="50" s="1" customFormat="1" customHeight="1" spans="3:8">
+      <c r="C50" s="1">
+        <v>311</v>
+      </c>
+      <c r="D50" s="1">
+        <v>3</v>
+      </c>
+      <c r="E50" s="1">
+        <v>1</v>
+      </c>
+      <c r="F50" s="1">
+        <v>11</v>
+      </c>
+      <c r="G50" s="1">
+        <v>8</v>
+      </c>
+      <c r="H50" s="1">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="51" s="1" customFormat="1" customHeight="1" spans="3:8">
+      <c r="C51" s="1">
+        <v>312</v>
+      </c>
+      <c r="D51" s="1">
+        <v>3</v>
+      </c>
+      <c r="E51" s="1">
+        <v>1</v>
+      </c>
+      <c r="F51" s="1">
+        <v>12</v>
+      </c>
+      <c r="G51" s="1">
+        <v>8</v>
+      </c>
+      <c r="H51" s="1">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="52" s="1" customFormat="1" customHeight="1" spans="3:8">
+      <c r="C52" s="1">
+        <v>313</v>
+      </c>
+      <c r="D52" s="1">
+        <v>3</v>
+      </c>
+      <c r="E52" s="1">
+        <v>1</v>
+      </c>
+      <c r="F52" s="1">
+        <v>13</v>
+      </c>
+      <c r="G52" s="1">
+        <v>8</v>
+      </c>
+      <c r="H52" s="1">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="53" s="1" customFormat="1" customHeight="1" spans="3:8">
+      <c r="C53" s="1">
+        <v>314</v>
+      </c>
+      <c r="D53" s="1">
+        <v>3</v>
+      </c>
+      <c r="E53" s="1">
+        <v>1</v>
+      </c>
+      <c r="F53" s="1">
+        <v>14</v>
+      </c>
+      <c r="G53" s="1">
+        <v>8</v>
+      </c>
+      <c r="H53" s="1">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="54" s="1" customFormat="1" customHeight="1" spans="3:8">
+      <c r="C54" s="1">
+        <v>315</v>
+      </c>
+      <c r="D54" s="1">
+        <v>3</v>
+      </c>
+      <c r="E54" s="1">
+        <v>1</v>
+      </c>
+      <c r="F54" s="1">
+        <v>15</v>
+      </c>
+      <c r="G54" s="1">
+        <v>8</v>
+      </c>
+      <c r="H54" s="1">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="55" s="1" customFormat="1" customHeight="1" spans="3:8">
+      <c r="C55" s="1">
+        <v>316</v>
+      </c>
+      <c r="D55" s="1">
+        <v>3</v>
+      </c>
+      <c r="E55" s="1">
+        <v>1</v>
+      </c>
+      <c r="F55" s="1">
+        <v>16</v>
+      </c>
+      <c r="G55" s="1">
+        <v>8</v>
+      </c>
+      <c r="H55" s="1">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="56" s="1" customFormat="1" customHeight="1"/>
+    <row r="57" s="1" customFormat="1" customHeight="1" spans="3:8">
+      <c r="C57" s="1">
         <v>401</v>
       </c>
-      <c r="D27">
+      <c r="D57" s="1">
         <v>4</v>
       </c>
-      <c r="E27" s="1">
-        <v>1</v>
-      </c>
-      <c r="F27">
-        <v>1</v>
-      </c>
-      <c r="G27">
+      <c r="E57" s="1">
+        <v>1</v>
+      </c>
+      <c r="F57" s="1">
+        <v>1</v>
+      </c>
+      <c r="G57" s="1">
         <v>9</v>
       </c>
-      <c r="H27">
+      <c r="H57" s="1">
         <v>30</v>
       </c>
-      <c r="I27" s="1"/>
-    </row>
-    <row r="28" customFormat="1" ht="27" customHeight="1" spans="3:9">
-      <c r="C28">
+    </row>
+    <row r="58" s="1" customFormat="1" customHeight="1" spans="3:8">
+      <c r="C58" s="1">
         <v>402</v>
       </c>
-      <c r="D28">
+      <c r="D58" s="1">
         <v>4</v>
       </c>
-      <c r="E28" s="1">
-        <v>1</v>
-      </c>
-      <c r="F28">
+      <c r="E58" s="1">
+        <v>1</v>
+      </c>
+      <c r="F58" s="1">
         <v>2</v>
       </c>
-      <c r="G28">
+      <c r="G58" s="1">
         <v>9</v>
       </c>
-      <c r="H28">
+      <c r="H58" s="1">
+        <f t="shared" ref="H58:H71" si="0">H57+3</f>
         <v>33</v>
       </c>
-      <c r="I28" s="1"/>
-    </row>
-    <row r="29" customFormat="1" ht="27" customHeight="1" spans="3:9">
-      <c r="C29">
+    </row>
+    <row r="59" s="1" customFormat="1" customHeight="1" spans="3:8">
+      <c r="C59" s="1">
         <v>403</v>
       </c>
-      <c r="D29">
+      <c r="D59" s="1">
         <v>4</v>
       </c>
-      <c r="E29" s="1">
-        <v>1</v>
-      </c>
-      <c r="F29">
+      <c r="E59" s="1">
+        <v>1</v>
+      </c>
+      <c r="F59" s="1">
         <v>3</v>
       </c>
-      <c r="G29">
+      <c r="G59" s="1">
         <v>9</v>
       </c>
-      <c r="H29">
+      <c r="H59" s="1">
+        <f t="shared" si="0"/>
         <v>36</v>
       </c>
-      <c r="I29" s="1"/>
-    </row>
-    <row r="30" customFormat="1" ht="27" customHeight="1" spans="3:9">
-      <c r="C30">
+    </row>
+    <row r="60" s="1" customFormat="1" customHeight="1" spans="3:8">
+      <c r="C60" s="1">
         <v>404</v>
       </c>
-      <c r="D30">
+      <c r="D60" s="1">
         <v>4</v>
       </c>
-      <c r="E30" s="1">
-        <v>1</v>
-      </c>
-      <c r="F30">
+      <c r="E60" s="1">
+        <v>1</v>
+      </c>
+      <c r="F60" s="1">
         <v>4</v>
       </c>
-      <c r="G30">
+      <c r="G60" s="1">
         <v>9</v>
       </c>
-      <c r="H30">
+      <c r="H60" s="1">
+        <f t="shared" si="0"/>
         <v>39</v>
       </c>
-      <c r="I30" s="1"/>
-    </row>
-    <row r="31" customFormat="1" ht="27" customHeight="1" spans="3:9">
-      <c r="C31">
+    </row>
+    <row r="61" s="1" customFormat="1" customHeight="1" spans="3:8">
+      <c r="C61" s="1">
         <v>405</v>
       </c>
-      <c r="D31">
+      <c r="D61" s="1">
         <v>4</v>
       </c>
-      <c r="E31" s="1">
-        <v>1</v>
-      </c>
-      <c r="F31">
+      <c r="E61" s="1">
+        <v>1</v>
+      </c>
+      <c r="F61" s="1">
         <v>5</v>
       </c>
-      <c r="G31">
+      <c r="G61" s="1">
         <v>9</v>
       </c>
-      <c r="H31">
+      <c r="H61" s="1">
+        <f t="shared" si="0"/>
         <v>42</v>
       </c>
-      <c r="I31" s="1"/>
-    </row>
-    <row r="32" customFormat="1" ht="27" customHeight="1" spans="3:9">
-      <c r="C32">
+    </row>
+    <row r="62" s="1" customFormat="1" customHeight="1" spans="3:8">
+      <c r="C62" s="1">
         <v>406</v>
       </c>
-      <c r="D32">
+      <c r="D62" s="1">
         <v>4</v>
       </c>
-      <c r="E32" s="1">
-        <v>1</v>
-      </c>
-      <c r="F32">
+      <c r="E62" s="1">
+        <v>1</v>
+      </c>
+      <c r="F62" s="1">
         <v>6</v>
       </c>
-      <c r="G32">
+      <c r="G62" s="1">
         <v>9</v>
       </c>
-      <c r="H32">
+      <c r="H62" s="1">
+        <f t="shared" si="0"/>
         <v>45</v>
       </c>
-      <c r="I32" s="1"/>
-    </row>
-    <row r="33" customFormat="1" ht="27" customHeight="1" spans="5:9">
-      <c r="E33" s="1"/>
-      <c r="I33" s="1"/>
-    </row>
-    <row r="34" customFormat="1" ht="27" customHeight="1" spans="3:9">
-      <c r="C34">
+    </row>
+    <row r="63" s="1" customFormat="1" customHeight="1" spans="3:8">
+      <c r="C63" s="1">
+        <v>407</v>
+      </c>
+      <c r="D63" s="1">
+        <v>4</v>
+      </c>
+      <c r="E63" s="1">
+        <v>1</v>
+      </c>
+      <c r="F63" s="1">
+        <v>7</v>
+      </c>
+      <c r="G63" s="1">
+        <v>9</v>
+      </c>
+      <c r="H63" s="1">
+        <f t="shared" si="0"/>
+        <v>48</v>
+      </c>
+    </row>
+    <row r="64" s="1" customFormat="1" customHeight="1" spans="3:8">
+      <c r="C64" s="1">
+        <v>408</v>
+      </c>
+      <c r="D64" s="1">
+        <v>4</v>
+      </c>
+      <c r="E64" s="1">
+        <v>1</v>
+      </c>
+      <c r="F64" s="1">
+        <v>8</v>
+      </c>
+      <c r="G64" s="1">
+        <v>9</v>
+      </c>
+      <c r="H64" s="1">
+        <f t="shared" si="0"/>
+        <v>51</v>
+      </c>
+    </row>
+    <row r="65" s="1" customFormat="1" customHeight="1" spans="3:8">
+      <c r="C65" s="1">
+        <v>409</v>
+      </c>
+      <c r="D65" s="1">
+        <v>4</v>
+      </c>
+      <c r="E65" s="1">
+        <v>1</v>
+      </c>
+      <c r="F65" s="1">
+        <v>9</v>
+      </c>
+      <c r="G65" s="1">
+        <v>9</v>
+      </c>
+      <c r="H65" s="1">
+        <f t="shared" si="0"/>
+        <v>54</v>
+      </c>
+    </row>
+    <row r="66" s="1" customFormat="1" customHeight="1" spans="3:8">
+      <c r="C66" s="1">
+        <v>410</v>
+      </c>
+      <c r="D66" s="1">
+        <v>4</v>
+      </c>
+      <c r="E66" s="1">
+        <v>1</v>
+      </c>
+      <c r="F66" s="1">
+        <v>10</v>
+      </c>
+      <c r="G66" s="1">
+        <v>9</v>
+      </c>
+      <c r="H66" s="1">
+        <f t="shared" si="0"/>
+        <v>57</v>
+      </c>
+    </row>
+    <row r="67" s="1" customFormat="1" customHeight="1" spans="3:8">
+      <c r="C67" s="1">
+        <v>411</v>
+      </c>
+      <c r="D67" s="1">
+        <v>4</v>
+      </c>
+      <c r="E67" s="1">
+        <v>1</v>
+      </c>
+      <c r="F67" s="1">
+        <v>11</v>
+      </c>
+      <c r="G67" s="1">
+        <v>9</v>
+      </c>
+      <c r="H67" s="1">
+        <f t="shared" si="0"/>
+        <v>60</v>
+      </c>
+    </row>
+    <row r="68" s="1" customFormat="1" customHeight="1" spans="3:8">
+      <c r="C68" s="1">
+        <v>412</v>
+      </c>
+      <c r="D68" s="1">
+        <v>4</v>
+      </c>
+      <c r="E68" s="1">
+        <v>1</v>
+      </c>
+      <c r="F68" s="1">
+        <v>12</v>
+      </c>
+      <c r="G68" s="1">
+        <v>9</v>
+      </c>
+      <c r="H68" s="1">
+        <f t="shared" si="0"/>
+        <v>63</v>
+      </c>
+    </row>
+    <row r="69" s="1" customFormat="1" customHeight="1" spans="3:8">
+      <c r="C69" s="1">
+        <v>413</v>
+      </c>
+      <c r="D69" s="1">
+        <v>4</v>
+      </c>
+      <c r="E69" s="1">
+        <v>1</v>
+      </c>
+      <c r="F69" s="1">
+        <v>13</v>
+      </c>
+      <c r="G69" s="1">
+        <v>9</v>
+      </c>
+      <c r="H69" s="1">
+        <f t="shared" si="0"/>
+        <v>66</v>
+      </c>
+    </row>
+    <row r="70" s="1" customFormat="1" customHeight="1" spans="3:8">
+      <c r="C70" s="1">
+        <v>414</v>
+      </c>
+      <c r="D70" s="1">
+        <v>4</v>
+      </c>
+      <c r="E70" s="1">
+        <v>1</v>
+      </c>
+      <c r="F70" s="1">
+        <v>14</v>
+      </c>
+      <c r="G70" s="1">
+        <v>9</v>
+      </c>
+      <c r="H70" s="1">
+        <f t="shared" si="0"/>
+        <v>69</v>
+      </c>
+    </row>
+    <row r="71" s="1" customFormat="1" customHeight="1" spans="3:8">
+      <c r="C71" s="1">
+        <v>415</v>
+      </c>
+      <c r="D71" s="1">
+        <v>4</v>
+      </c>
+      <c r="E71" s="1">
+        <v>1</v>
+      </c>
+      <c r="F71" s="1">
+        <v>15</v>
+      </c>
+      <c r="G71" s="1">
+        <v>9</v>
+      </c>
+      <c r="H71" s="1">
+        <f t="shared" si="0"/>
+        <v>72</v>
+      </c>
+    </row>
+    <row r="72" s="1" customFormat="1" customHeight="1"/>
+    <row r="73" s="1" customFormat="1" customHeight="1"/>
+    <row r="74" s="1" customFormat="1" customHeight="1" spans="3:8">
+      <c r="C74" s="1">
         <v>501</v>
       </c>
-      <c r="D34">
+      <c r="D74" s="1">
         <v>5</v>
       </c>
-      <c r="E34" s="1">
-        <v>1</v>
-      </c>
-      <c r="F34">
-        <v>1</v>
-      </c>
-      <c r="G34">
+      <c r="E74" s="1">
+        <v>1</v>
+      </c>
+      <c r="F74" s="1">
+        <v>1</v>
+      </c>
+      <c r="G74" s="1">
         <v>203</v>
       </c>
-      <c r="H34">
+      <c r="H74" s="1">
         <v>10</v>
       </c>
-      <c r="I34" s="1"/>
-    </row>
-    <row r="35" spans="3:3">
-      <c r="C35"/>
-    </row>
-    <row r="36" spans="3:3">
-      <c r="C36"/>
-    </row>
-    <row r="37" spans="3:3">
-      <c r="C37"/>
-    </row>
-    <row r="38" spans="3:5">
-      <c r="C38"/>
-      <c r="E38"/>
-    </row>
-    <row r="39" spans="3:5">
-      <c r="C39"/>
-      <c r="E39"/>
-    </row>
-    <row r="40" spans="5:5">
-      <c r="E40"/>
-    </row>
-    <row r="41" spans="5:5">
-      <c r="E41"/>
+    </row>
+    <row r="75" s="1" customFormat="1" customHeight="1" spans="3:8">
+      <c r="C75" s="1">
+        <v>502</v>
+      </c>
+      <c r="D75" s="1">
+        <v>5</v>
+      </c>
+      <c r="E75" s="1">
+        <v>1</v>
+      </c>
+      <c r="F75" s="1">
+        <v>2</v>
+      </c>
+      <c r="G75" s="1">
+        <v>203</v>
+      </c>
+      <c r="H75" s="1">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="76" s="1" customFormat="1" customHeight="1" spans="3:8">
+      <c r="C76" s="1">
+        <v>503</v>
+      </c>
+      <c r="D76" s="1">
+        <v>5</v>
+      </c>
+      <c r="E76" s="1">
+        <v>1</v>
+      </c>
+      <c r="F76" s="1">
+        <v>3</v>
+      </c>
+      <c r="G76" s="1">
+        <v>203</v>
+      </c>
+      <c r="H76" s="1">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="77" s="1" customFormat="1" customHeight="1" spans="3:8">
+      <c r="C77" s="1">
+        <v>504</v>
+      </c>
+      <c r="D77" s="1">
+        <v>5</v>
+      </c>
+      <c r="E77" s="1">
+        <v>1</v>
+      </c>
+      <c r="F77" s="1">
+        <v>4</v>
+      </c>
+      <c r="G77" s="1">
+        <v>203</v>
+      </c>
+      <c r="H77" s="1">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="78" s="1" customFormat="1" customHeight="1" spans="3:8">
+      <c r="C78" s="1">
+        <v>505</v>
+      </c>
+      <c r="D78" s="1">
+        <v>5</v>
+      </c>
+      <c r="E78" s="1">
+        <v>1</v>
+      </c>
+      <c r="F78" s="1">
+        <v>5</v>
+      </c>
+      <c r="G78" s="1">
+        <v>203</v>
+      </c>
+      <c r="H78" s="1">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="79" s="1" customFormat="1" customHeight="1" spans="3:8">
+      <c r="C79" s="1">
+        <v>506</v>
+      </c>
+      <c r="D79" s="1">
+        <v>5</v>
+      </c>
+      <c r="E79" s="1">
+        <v>1</v>
+      </c>
+      <c r="F79" s="1">
+        <v>6</v>
+      </c>
+      <c r="G79" s="1">
+        <v>203</v>
+      </c>
+      <c r="H79" s="1">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="80" s="1" customFormat="1" customHeight="1" spans="3:8">
+      <c r="C80" s="1">
+        <v>507</v>
+      </c>
+      <c r="D80" s="1">
+        <v>5</v>
+      </c>
+      <c r="E80" s="1">
+        <v>1</v>
+      </c>
+      <c r="F80" s="1">
+        <v>7</v>
+      </c>
+      <c r="G80" s="1">
+        <v>203</v>
+      </c>
+      <c r="H80" s="1">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="81" s="1" customFormat="1" customHeight="1" spans="3:8">
+      <c r="C81" s="1">
+        <v>508</v>
+      </c>
+      <c r="D81" s="1">
+        <v>5</v>
+      </c>
+      <c r="E81" s="1">
+        <v>1</v>
+      </c>
+      <c r="F81" s="1">
+        <v>8</v>
+      </c>
+      <c r="G81" s="1">
+        <v>203</v>
+      </c>
+      <c r="H81" s="1">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="82" s="1" customFormat="1" customHeight="1" spans="3:8">
+      <c r="C82" s="1">
+        <v>509</v>
+      </c>
+      <c r="D82" s="1">
+        <v>5</v>
+      </c>
+      <c r="E82" s="1">
+        <v>1</v>
+      </c>
+      <c r="F82" s="1">
+        <v>9</v>
+      </c>
+      <c r="G82" s="1">
+        <v>203</v>
+      </c>
+      <c r="H82" s="1">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="83" s="1" customFormat="1" customHeight="1" spans="3:8">
+      <c r="C83" s="1">
+        <v>510</v>
+      </c>
+      <c r="D83" s="1">
+        <v>5</v>
+      </c>
+      <c r="E83" s="1">
+        <v>1</v>
+      </c>
+      <c r="F83" s="1">
+        <v>10</v>
+      </c>
+      <c r="G83" s="1">
+        <v>203</v>
+      </c>
+      <c r="H83" s="1">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="84" s="1" customFormat="1" customHeight="1" spans="3:8">
+      <c r="C84" s="1">
+        <v>511</v>
+      </c>
+      <c r="D84" s="1">
+        <v>5</v>
+      </c>
+      <c r="E84" s="1">
+        <v>1</v>
+      </c>
+      <c r="F84" s="1">
+        <v>11</v>
+      </c>
+      <c r="G84" s="1">
+        <v>203</v>
+      </c>
+      <c r="H84" s="1">
+        <v>20</v>
+      </c>
     </row>
   </sheetData>
   <dataValidations count="1">

--- a/Excel/AurasAttrConfig.xlsx
+++ b/Excel/AurasAttrConfig.xlsx
@@ -4,12 +4,25 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="28800" windowHeight="12255"/>
+    <workbookView windowWidth="28800" windowHeight="12375"/>
   </bookViews>
   <sheets>
     <sheet name="生成配置" sheetId="2" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="144525"/>
+  <calcPr calcId="191029"/>
+  <extLst>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
+        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
+      </xcalcf:calcFeatures>
+    </ext>
+  </extLst>
 </workbook>
 </file>
 
@@ -105,7 +118,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:xr9="http://schemas.microsoft.com/office/spreadsheetml/2016/revision9">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr9="http://schemas.microsoft.com/office/spreadsheetml/2016/revision9" mc:Ignorable="xr9">
   <numFmts count="4">
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
@@ -1070,10 +1083,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:K84"/>
+  <dimension ref="A1:K96"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B61" workbookViewId="0">
-      <selection activeCell="G88" sqref="G88"/>
+    <sheetView tabSelected="1" topLeftCell="B67" workbookViewId="0">
+      <selection activeCell="G86" sqref="G86:G96"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="16" customHeight="1"/>
@@ -2683,6 +2696,226 @@
         <v>20</v>
       </c>
     </row>
+    <row r="86" s="1" customFormat="1" customHeight="1" spans="3:8">
+      <c r="C86" s="1">
+        <v>601</v>
+      </c>
+      <c r="D86" s="1">
+        <v>6</v>
+      </c>
+      <c r="E86" s="1">
+        <v>1</v>
+      </c>
+      <c r="F86" s="1">
+        <v>1</v>
+      </c>
+      <c r="G86" s="1">
+        <v>31</v>
+      </c>
+      <c r="H86" s="1">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="87" s="1" customFormat="1" customHeight="1" spans="3:8">
+      <c r="C87" s="1">
+        <v>602</v>
+      </c>
+      <c r="D87" s="1">
+        <v>6</v>
+      </c>
+      <c r="E87" s="1">
+        <v>1</v>
+      </c>
+      <c r="F87" s="1">
+        <v>2</v>
+      </c>
+      <c r="G87" s="1">
+        <v>31</v>
+      </c>
+      <c r="H87" s="1">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="88" s="1" customFormat="1" customHeight="1" spans="3:8">
+      <c r="C88" s="1">
+        <v>603</v>
+      </c>
+      <c r="D88" s="1">
+        <v>6</v>
+      </c>
+      <c r="E88" s="1">
+        <v>1</v>
+      </c>
+      <c r="F88" s="1">
+        <v>3</v>
+      </c>
+      <c r="G88" s="1">
+        <v>31</v>
+      </c>
+      <c r="H88" s="1">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="89" s="1" customFormat="1" customHeight="1" spans="3:8">
+      <c r="C89" s="1">
+        <v>604</v>
+      </c>
+      <c r="D89" s="1">
+        <v>6</v>
+      </c>
+      <c r="E89" s="1">
+        <v>1</v>
+      </c>
+      <c r="F89" s="1">
+        <v>4</v>
+      </c>
+      <c r="G89" s="1">
+        <v>31</v>
+      </c>
+      <c r="H89" s="1">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="90" s="1" customFormat="1" customHeight="1" spans="3:8">
+      <c r="C90" s="1">
+        <v>605</v>
+      </c>
+      <c r="D90" s="1">
+        <v>6</v>
+      </c>
+      <c r="E90" s="1">
+        <v>1</v>
+      </c>
+      <c r="F90" s="1">
+        <v>5</v>
+      </c>
+      <c r="G90" s="1">
+        <v>31</v>
+      </c>
+      <c r="H90" s="1">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="91" s="1" customFormat="1" customHeight="1" spans="3:8">
+      <c r="C91" s="1">
+        <v>606</v>
+      </c>
+      <c r="D91" s="1">
+        <v>6</v>
+      </c>
+      <c r="E91" s="1">
+        <v>1</v>
+      </c>
+      <c r="F91" s="1">
+        <v>6</v>
+      </c>
+      <c r="G91" s="1">
+        <v>31</v>
+      </c>
+      <c r="H91" s="1">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="92" s="1" customFormat="1" customHeight="1" spans="3:8">
+      <c r="C92" s="1">
+        <v>607</v>
+      </c>
+      <c r="D92" s="1">
+        <v>6</v>
+      </c>
+      <c r="E92" s="1">
+        <v>1</v>
+      </c>
+      <c r="F92" s="1">
+        <v>7</v>
+      </c>
+      <c r="G92" s="1">
+        <v>31</v>
+      </c>
+      <c r="H92" s="1">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="93" s="1" customFormat="1" customHeight="1" spans="3:8">
+      <c r="C93" s="1">
+        <v>608</v>
+      </c>
+      <c r="D93" s="1">
+        <v>6</v>
+      </c>
+      <c r="E93" s="1">
+        <v>1</v>
+      </c>
+      <c r="F93" s="1">
+        <v>8</v>
+      </c>
+      <c r="G93" s="1">
+        <v>31</v>
+      </c>
+      <c r="H93" s="1">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="94" s="1" customFormat="1" customHeight="1" spans="3:8">
+      <c r="C94" s="1">
+        <v>609</v>
+      </c>
+      <c r="D94" s="1">
+        <v>6</v>
+      </c>
+      <c r="E94" s="1">
+        <v>1</v>
+      </c>
+      <c r="F94" s="1">
+        <v>9</v>
+      </c>
+      <c r="G94" s="1">
+        <v>31</v>
+      </c>
+      <c r="H94" s="1">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="95" s="1" customFormat="1" customHeight="1" spans="3:8">
+      <c r="C95" s="1">
+        <v>610</v>
+      </c>
+      <c r="D95" s="1">
+        <v>6</v>
+      </c>
+      <c r="E95" s="1">
+        <v>1</v>
+      </c>
+      <c r="F95" s="1">
+        <v>10</v>
+      </c>
+      <c r="G95" s="1">
+        <v>31</v>
+      </c>
+      <c r="H95" s="1">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="96" s="1" customFormat="1" customHeight="1" spans="3:8">
+      <c r="C96" s="1">
+        <v>611</v>
+      </c>
+      <c r="D96" s="1">
+        <v>6</v>
+      </c>
+      <c r="E96" s="1">
+        <v>1</v>
+      </c>
+      <c r="F96" s="1">
+        <v>11</v>
+      </c>
+      <c r="G96" s="1">
+        <v>31</v>
+      </c>
+      <c r="H96" s="1">
+        <v>20</v>
+      </c>
+    </row>
   </sheetData>
   <dataValidations count="1">
     <dataValidation type="custom" allowBlank="1" showErrorMessage="1" errorTitle="拒绝重复输入" error="当前输入的内容，与本区域的其他单元格内容重复。" sqref="D3 E3 F3 G3 H3 D4 E4 F4 G4 H4 D5 E5 F5 G5 H5 C3:C5" errorStyle="warning">

--- a/Excel/AurasAttrConfig.xlsx
+++ b/Excel/AurasAttrConfig.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="28800" windowHeight="12255"/>
+    <workbookView windowWidth="28800" windowHeight="12375"/>
   </bookViews>
   <sheets>
     <sheet name="生成配置" sheetId="2" r:id="rId1"/>
@@ -57,60 +57,12 @@
         </r>
       </text>
     </comment>
-    <comment ref="I3" authorId="0">
-      <text>
-        <r>
-          <rPr>
-            <b/>
-            <sz val="9"/>
-            <rFont val="宋体"/>
-            <charset val="134"/>
-          </rPr>
-          <t>admin:</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <rFont val="宋体"/>
-            <charset val="134"/>
-          </rPr>
-          <t xml:space="preserve">
--1 没有
-0 随机
-&gt;0 对应模型</t>
-        </r>
-      </text>
-    </comment>
-    <comment ref="I4" authorId="0">
-      <text>
-        <r>
-          <rPr>
-            <b/>
-            <sz val="9"/>
-            <rFont val="宋体"/>
-            <charset val="134"/>
-          </rPr>
-          <t>admin:</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <rFont val="宋体"/>
-            <charset val="134"/>
-          </rPr>
-          <t xml:space="preserve">
--1 没有
-0 随机
-&gt;0 对应模型</t>
-        </r>
-      </text>
-    </comment>
   </commentList>
 </comments>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="21" uniqueCount="9">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="43" uniqueCount="27">
   <si>
     <t>ID</t>
   </si>
@@ -133,10 +85,64 @@
     <t>Rise</t>
   </si>
   <si>
+    <t>Name</t>
+  </si>
+  <si>
+    <t>Memo</t>
+  </si>
+  <si>
     <t>Id</t>
   </si>
   <si>
     <t>int</t>
+  </si>
+  <si>
+    <t>string</t>
+  </si>
+  <si>
+    <t>守护光环</t>
+  </si>
+  <si>
+    <t>友方所受伤害减少{0}%</t>
+  </si>
+  <si>
+    <t>强击光环</t>
+  </si>
+  <si>
+    <t>友方最终伤害增加{0}%</t>
+  </si>
+  <si>
+    <t>暴击光环</t>
+  </si>
+  <si>
+    <t>友方暴击概率增加{0}%</t>
+  </si>
+  <si>
+    <t>爆伤光环</t>
+  </si>
+  <si>
+    <t>友方暴击伤害增加{0}%</t>
+  </si>
+  <si>
+    <t>祝福光环</t>
+  </si>
+  <si>
+    <t>友方最终攻击增加{0}%</t>
+  </si>
+  <si>
+    <t>闪避光环</t>
+  </si>
+  <si>
+    <t>友方闪避概率增加{0}%</t>
+  </si>
+  <si>
+    <t>减伤光环</t>
+  </si>
+  <si>
+    <t>友方减伤倍率增加{0}%</t>
+  </si>
+  <si>
+    <t>未设定</t>
   </si>
 </sst>
 </file>
@@ -1107,10 +1113,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:K21"/>
+  <dimension ref="A1:L21"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
-      <selection activeCell="D16" sqref="D16"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E19" sqref="E19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="16" customHeight="1"/>
@@ -1123,30 +1129,28 @@
     <col min="6" max="6" width="12.125" style="1" customWidth="1"/>
     <col min="7" max="7" width="14.625" style="2" customWidth="1"/>
     <col min="8" max="8" width="13" style="2" customWidth="1"/>
-    <col min="9" max="9" width="13.75" style="1" customWidth="1"/>
-    <col min="10" max="10" width="8.125" style="2" customWidth="1"/>
-    <col min="11" max="11" width="9.625" style="2" customWidth="1"/>
-    <col min="12" max="16373" width="9" style="2"/>
-    <col min="16374" max="16384" width="9" style="1"/>
+    <col min="9" max="10" width="13.75" style="1" customWidth="1"/>
+    <col min="11" max="11" width="16.5" style="1" customWidth="1"/>
+    <col min="12" max="12" width="9.625" style="2" customWidth="1"/>
+    <col min="13" max="16374" width="9" style="2"/>
+    <col min="16375" max="16384" width="9" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" s="1" customFormat="1" customHeight="1" spans="1:11">
+    <row r="1" s="1" customFormat="1" customHeight="1" spans="1:12">
       <c r="A1" s="2"/>
       <c r="B1" s="2"/>
       <c r="G1" s="2"/>
       <c r="H1" s="2"/>
-      <c r="J1" s="2"/>
-      <c r="K1" s="2"/>
+      <c r="L1" s="2"/>
     </row>
-    <row r="2" s="1" customFormat="1" customHeight="1" spans="1:11">
+    <row r="2" s="1" customFormat="1" customHeight="1" spans="1:12">
       <c r="A2" s="2"/>
       <c r="B2" s="2"/>
       <c r="G2" s="2"/>
       <c r="H2" s="2"/>
-      <c r="J2" s="2"/>
-      <c r="K2" s="2"/>
+      <c r="L2" s="2"/>
     </row>
-    <row r="3" s="1" customFormat="1" customHeight="1" spans="1:11">
+    <row r="3" s="1" customFormat="1" customHeight="1" spans="1:12">
       <c r="A3" s="2"/>
       <c r="B3" s="2"/>
       <c r="C3" s="3" t="s">
@@ -1170,14 +1174,19 @@
       <c r="I3" s="4" t="s">
         <v>6</v>
       </c>
-      <c r="J3" s="2"/>
-      <c r="K3" s="2"/>
+      <c r="J3" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="K3" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="L3" s="2"/>
     </row>
-    <row r="4" s="1" customFormat="1" customHeight="1" spans="1:11">
+    <row r="4" s="1" customFormat="1" customHeight="1" spans="1:12">
       <c r="A4" s="2"/>
       <c r="B4" s="2"/>
       <c r="C4" s="3" t="s">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="D4" s="3" t="s">
         <v>1</v>
@@ -1197,37 +1206,47 @@
       <c r="I4" s="4" t="s">
         <v>6</v>
       </c>
-      <c r="J4" s="2"/>
-      <c r="K4" s="2"/>
+      <c r="J4" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="K4" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="L4" s="2"/>
     </row>
-    <row r="5" s="1" customFormat="1" customHeight="1" spans="1:11">
+    <row r="5" s="1" customFormat="1" customHeight="1" spans="1:12">
       <c r="A5" s="2"/>
       <c r="B5" s="2"/>
       <c r="C5" s="3" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="D5" s="3" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="E5" s="3" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="F5" s="3" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="G5" s="3" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="H5" s="4" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="I5" s="4" t="s">
-        <v>8</v>
-      </c>
-      <c r="J5" s="2"/>
-      <c r="K5" s="2"/>
+        <v>10</v>
+      </c>
+      <c r="J5" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="K5" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="L5" s="2"/>
     </row>
-    <row r="6" s="1" customFormat="1" customHeight="1" spans="3:9">
+    <row r="6" s="1" customFormat="1" customHeight="1" spans="3:11">
       <c r="C6" s="1">
         <v>1</v>
       </c>
@@ -1249,8 +1268,14 @@
       <c r="I6" s="1">
         <v>1</v>
       </c>
+      <c r="J6" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="K6" s="1" t="s">
+        <v>13</v>
+      </c>
     </row>
-    <row r="7" s="1" customFormat="1" customHeight="1" spans="3:9">
+    <row r="7" s="1" customFormat="1" customHeight="1" spans="3:11">
       <c r="C7" s="1">
         <v>2</v>
       </c>
@@ -1272,8 +1297,14 @@
       <c r="I7" s="1">
         <v>1</v>
       </c>
+      <c r="J7" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="K7" s="1" t="s">
+        <v>15</v>
+      </c>
     </row>
-    <row r="8" s="1" customFormat="1" customHeight="1" spans="3:9">
+    <row r="8" s="1" customFormat="1" customHeight="1" spans="3:11">
       <c r="C8" s="1">
         <v>3</v>
       </c>
@@ -1295,8 +1326,14 @@
       <c r="I8" s="1">
         <v>1</v>
       </c>
+      <c r="J8" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="K8" s="1" t="s">
+        <v>17</v>
+      </c>
     </row>
-    <row r="9" s="1" customFormat="1" customHeight="1" spans="3:9">
+    <row r="9" s="1" customFormat="1" customHeight="1" spans="3:11">
       <c r="C9" s="1">
         <v>4</v>
       </c>
@@ -1318,8 +1355,14 @@
       <c r="I9" s="1">
         <v>3</v>
       </c>
+      <c r="J9" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="K9" s="1" t="s">
+        <v>19</v>
+      </c>
     </row>
-    <row r="10" s="1" customFormat="1" customHeight="1" spans="3:9">
+    <row r="10" s="1" customFormat="1" customHeight="1" spans="3:11">
       <c r="C10" s="1">
         <v>5</v>
       </c>
@@ -1341,8 +1384,14 @@
       <c r="I10" s="1">
         <v>1</v>
       </c>
+      <c r="J10" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="K10" s="1" t="s">
+        <v>21</v>
+      </c>
     </row>
-    <row r="11" s="1" customFormat="1" customHeight="1" spans="3:9">
+    <row r="11" s="1" customFormat="1" customHeight="1" spans="3:11">
       <c r="C11" s="1">
         <v>6</v>
       </c>
@@ -1364,9 +1413,71 @@
       <c r="I11" s="1">
         <v>1</v>
       </c>
+      <c r="J11" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="K11" s="1" t="s">
+        <v>23</v>
+      </c>
     </row>
-    <row r="12" s="1" customFormat="1" customHeight="1"/>
-    <row r="13" s="1" customFormat="1" customHeight="1"/>
+    <row r="12" s="1" customFormat="1" customHeight="1" spans="3:11">
+      <c r="C12" s="1">
+        <v>7</v>
+      </c>
+      <c r="D12" s="1">
+        <v>7</v>
+      </c>
+      <c r="E12" s="1">
+        <v>1</v>
+      </c>
+      <c r="F12" s="1">
+        <v>1</v>
+      </c>
+      <c r="G12" s="1">
+        <v>2011</v>
+      </c>
+      <c r="H12" s="1">
+        <v>10</v>
+      </c>
+      <c r="I12" s="1">
+        <v>1</v>
+      </c>
+      <c r="J12" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="K12" s="1" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="13" s="1" customFormat="1" customHeight="1" spans="3:11">
+      <c r="C13" s="1">
+        <v>8</v>
+      </c>
+      <c r="D13" s="1">
+        <v>8</v>
+      </c>
+      <c r="E13" s="1">
+        <v>1</v>
+      </c>
+      <c r="F13" s="1">
+        <v>0</v>
+      </c>
+      <c r="G13" s="1">
+        <v>0</v>
+      </c>
+      <c r="H13" s="1">
+        <v>0</v>
+      </c>
+      <c r="I13" s="1">
+        <v>0</v>
+      </c>
+      <c r="J13" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="K13" s="1" t="s">
+        <v>26</v>
+      </c>
+    </row>
     <row r="14" s="1" customFormat="1" customHeight="1"/>
     <row r="15" s="1" customFormat="1" customHeight="1"/>
     <row r="16" s="1" customFormat="1" customHeight="1"/>

--- a/Excel/AurasAttrConfig.xlsx
+++ b/Excel/AurasAttrConfig.xlsx
@@ -62,7 +62,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="43" uniqueCount="27">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="40" uniqueCount="26">
   <si>
     <t>ID</t>
   </si>
@@ -71,9 +71,6 @@
   </si>
   <si>
     <t>Type</t>
-  </si>
-  <si>
-    <t>Level</t>
   </si>
   <si>
     <t>AttrId</t>
@@ -1113,10 +1110,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:L21"/>
+  <dimension ref="A1:K21"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E19" sqref="E19"/>
+      <selection activeCell="H24" sqref="H24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="16" customHeight="1"/>
@@ -1126,31 +1123,30 @@
     <col min="3" max="3" width="9.875" style="1" customWidth="1"/>
     <col min="4" max="4" width="12.125" style="1" customWidth="1"/>
     <col min="5" max="5" width="15.5" style="1" customWidth="1"/>
-    <col min="6" max="6" width="12.125" style="1" customWidth="1"/>
-    <col min="7" max="7" width="14.625" style="2" customWidth="1"/>
-    <col min="8" max="8" width="13" style="2" customWidth="1"/>
-    <col min="9" max="10" width="13.75" style="1" customWidth="1"/>
-    <col min="11" max="11" width="16.5" style="1" customWidth="1"/>
-    <col min="12" max="12" width="9.625" style="2" customWidth="1"/>
-    <col min="13" max="16374" width="9" style="2"/>
-    <col min="16375" max="16384" width="9" style="1"/>
+    <col min="6" max="6" width="14.625" style="2" customWidth="1"/>
+    <col min="7" max="7" width="13" style="2" customWidth="1"/>
+    <col min="8" max="9" width="13.75" style="1" customWidth="1"/>
+    <col min="10" max="10" width="16.5" style="1" customWidth="1"/>
+    <col min="11" max="11" width="9.625" style="2" customWidth="1"/>
+    <col min="12" max="16373" width="9" style="2"/>
+    <col min="16374" max="16384" width="9" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" s="1" customFormat="1" customHeight="1" spans="1:12">
+    <row r="1" s="1" customFormat="1" customHeight="1" spans="1:11">
       <c r="A1" s="2"/>
       <c r="B1" s="2"/>
+      <c r="F1" s="2"/>
       <c r="G1" s="2"/>
-      <c r="H1" s="2"/>
-      <c r="L1" s="2"/>
+      <c r="K1" s="2"/>
     </row>
-    <row r="2" s="1" customFormat="1" customHeight="1" spans="1:12">
+    <row r="2" s="1" customFormat="1" customHeight="1" spans="1:11">
       <c r="A2" s="2"/>
       <c r="B2" s="2"/>
+      <c r="F2" s="2"/>
       <c r="G2" s="2"/>
-      <c r="H2" s="2"/>
-      <c r="L2" s="2"/>
+      <c r="K2" s="2"/>
     </row>
-    <row r="3" s="1" customFormat="1" customHeight="1" spans="1:12">
+    <row r="3" s="1" customFormat="1" customHeight="1" spans="1:11">
       <c r="A3" s="2"/>
       <c r="B3" s="2"/>
       <c r="C3" s="3" t="s">
@@ -1168,7 +1164,7 @@
       <c r="G3" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="H3" s="3" t="s">
+      <c r="H3" s="4" t="s">
         <v>5</v>
       </c>
       <c r="I3" s="4" t="s">
@@ -1177,16 +1173,13 @@
       <c r="J3" s="4" t="s">
         <v>7</v>
       </c>
-      <c r="K3" s="4" t="s">
-        <v>8</v>
-      </c>
-      <c r="L3" s="2"/>
+      <c r="K3" s="2"/>
     </row>
-    <row r="4" s="1" customFormat="1" customHeight="1" spans="1:12">
+    <row r="4" s="1" customFormat="1" customHeight="1" spans="1:11">
       <c r="A4" s="2"/>
       <c r="B4" s="2"/>
       <c r="C4" s="3" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="D4" s="3" t="s">
         <v>1</v>
@@ -1200,7 +1193,7 @@
       <c r="G4" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="H4" s="3" t="s">
+      <c r="H4" s="4" t="s">
         <v>5</v>
       </c>
       <c r="I4" s="4" t="s">
@@ -1209,73 +1202,64 @@
       <c r="J4" s="4" t="s">
         <v>7</v>
       </c>
-      <c r="K4" s="4" t="s">
-        <v>8</v>
-      </c>
-      <c r="L4" s="2"/>
+      <c r="K4" s="2"/>
     </row>
-    <row r="5" s="1" customFormat="1" customHeight="1" spans="1:12">
+    <row r="5" s="1" customFormat="1" customHeight="1" spans="1:11">
       <c r="A5" s="2"/>
       <c r="B5" s="2"/>
       <c r="C5" s="3" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="D5" s="3" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="E5" s="3" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="F5" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="G5" s="3" t="s">
-        <v>10</v>
+        <v>9</v>
+      </c>
+      <c r="G5" s="4" t="s">
+        <v>9</v>
       </c>
       <c r="H5" s="4" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="I5" s="4" t="s">
         <v>10</v>
       </c>
       <c r="J5" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="K5" s="2"/>
+    </row>
+    <row r="6" s="1" customFormat="1" customHeight="1" spans="3:10">
+      <c r="C6" s="1">
+        <v>1</v>
+      </c>
+      <c r="D6" s="1">
+        <v>1</v>
+      </c>
+      <c r="E6" s="1">
+        <v>1</v>
+      </c>
+      <c r="F6" s="1">
+        <v>201</v>
+      </c>
+      <c r="G6" s="1">
+        <v>10</v>
+      </c>
+      <c r="H6" s="1">
+        <v>1</v>
+      </c>
+      <c r="I6" s="1" t="s">
         <v>11</v>
-      </c>
-      <c r="K5" s="4" t="s">
-        <v>11</v>
-      </c>
-      <c r="L5" s="2"/>
-    </row>
-    <row r="6" s="1" customFormat="1" customHeight="1" spans="3:11">
-      <c r="C6" s="1">
-        <v>1</v>
-      </c>
-      <c r="D6" s="1">
-        <v>1</v>
-      </c>
-      <c r="E6" s="1">
-        <v>1</v>
-      </c>
-      <c r="F6" s="1">
-        <v>1</v>
-      </c>
-      <c r="G6" s="1">
-        <v>201</v>
-      </c>
-      <c r="H6" s="1">
-        <v>10</v>
-      </c>
-      <c r="I6" s="1">
-        <v>1</v>
       </c>
       <c r="J6" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="K6" s="1" t="s">
-        <v>13</v>
-      </c>
     </row>
-    <row r="7" s="1" customFormat="1" customHeight="1" spans="3:11">
+    <row r="7" s="1" customFormat="1" customHeight="1" spans="3:10">
       <c r="C7" s="1">
         <v>2</v>
       </c>
@@ -1286,25 +1270,22 @@
         <v>1</v>
       </c>
       <c r="F7" s="1">
-        <v>1</v>
+        <v>202</v>
       </c>
       <c r="G7" s="1">
-        <v>202</v>
+        <v>10</v>
       </c>
       <c r="H7" s="1">
-        <v>10</v>
-      </c>
-      <c r="I7" s="1">
-        <v>1</v>
+        <v>1</v>
+      </c>
+      <c r="I7" s="1" t="s">
+        <v>13</v>
       </c>
       <c r="J7" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="K7" s="1" t="s">
-        <v>15</v>
-      </c>
     </row>
-    <row r="8" s="1" customFormat="1" customHeight="1" spans="3:11">
+    <row r="8" s="1" customFormat="1" customHeight="1" spans="3:10">
       <c r="C8" s="1">
         <v>3</v>
       </c>
@@ -1315,25 +1296,22 @@
         <v>1</v>
       </c>
       <c r="F8" s="1">
-        <v>1</v>
+        <v>8</v>
       </c>
       <c r="G8" s="1">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="H8" s="1">
-        <v>10</v>
-      </c>
-      <c r="I8" s="1">
-        <v>1</v>
+        <v>1</v>
+      </c>
+      <c r="I8" s="1" t="s">
+        <v>15</v>
       </c>
       <c r="J8" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="K8" s="1" t="s">
-        <v>17</v>
-      </c>
     </row>
-    <row r="9" s="1" customFormat="1" customHeight="1" spans="3:11">
+    <row r="9" s="1" customFormat="1" customHeight="1" spans="3:10">
       <c r="C9" s="1">
         <v>4</v>
       </c>
@@ -1344,25 +1322,22 @@
         <v>1</v>
       </c>
       <c r="F9" s="1">
-        <v>1</v>
+        <v>9</v>
       </c>
       <c r="G9" s="1">
-        <v>9</v>
+        <v>30</v>
       </c>
       <c r="H9" s="1">
-        <v>30</v>
-      </c>
-      <c r="I9" s="1">
         <v>3</v>
+      </c>
+      <c r="I9" s="1" t="s">
+        <v>17</v>
       </c>
       <c r="J9" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="K9" s="1" t="s">
-        <v>19</v>
-      </c>
     </row>
-    <row r="10" s="1" customFormat="1" customHeight="1" spans="3:11">
+    <row r="10" s="1" customFormat="1" customHeight="1" spans="3:10">
       <c r="C10" s="1">
         <v>5</v>
       </c>
@@ -1373,25 +1348,22 @@
         <v>1</v>
       </c>
       <c r="F10" s="1">
-        <v>1</v>
+        <v>203</v>
       </c>
       <c r="G10" s="1">
-        <v>203</v>
+        <v>10</v>
       </c>
       <c r="H10" s="1">
-        <v>10</v>
-      </c>
-      <c r="I10" s="1">
-        <v>1</v>
+        <v>1</v>
+      </c>
+      <c r="I10" s="1" t="s">
+        <v>19</v>
       </c>
       <c r="J10" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="K10" s="1" t="s">
-        <v>21</v>
-      </c>
     </row>
-    <row r="11" s="1" customFormat="1" customHeight="1" spans="3:11">
+    <row r="11" s="1" customFormat="1" customHeight="1" spans="3:10">
       <c r="C11" s="1">
         <v>6</v>
       </c>
@@ -1402,25 +1374,22 @@
         <v>1</v>
       </c>
       <c r="F11" s="1">
-        <v>1</v>
+        <v>31</v>
       </c>
       <c r="G11" s="1">
-        <v>31</v>
+        <v>10</v>
       </c>
       <c r="H11" s="1">
-        <v>10</v>
-      </c>
-      <c r="I11" s="1">
-        <v>1</v>
+        <v>1</v>
+      </c>
+      <c r="I11" s="1" t="s">
+        <v>21</v>
       </c>
       <c r="J11" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="K11" s="1" t="s">
-        <v>23</v>
-      </c>
     </row>
-    <row r="12" s="1" customFormat="1" customHeight="1" spans="3:11">
+    <row r="12" s="1" customFormat="1" customHeight="1" spans="3:10">
       <c r="C12" s="1">
         <v>7</v>
       </c>
@@ -1431,25 +1400,22 @@
         <v>1</v>
       </c>
       <c r="F12" s="1">
-        <v>1</v>
+        <v>2011</v>
       </c>
       <c r="G12" s="1">
-        <v>2011</v>
+        <v>1</v>
       </c>
       <c r="H12" s="1">
-        <v>10</v>
-      </c>
-      <c r="I12" s="1">
-        <v>1</v>
+        <v>1</v>
+      </c>
+      <c r="I12" s="1" t="s">
+        <v>23</v>
       </c>
       <c r="J12" s="1" t="s">
         <v>24</v>
       </c>
-      <c r="K12" s="1" t="s">
-        <v>25</v>
-      </c>
     </row>
-    <row r="13" s="1" customFormat="1" customHeight="1" spans="3:11">
+    <row r="13" s="1" customFormat="1" customHeight="1" spans="3:10">
       <c r="C13" s="1">
         <v>8</v>
       </c>
@@ -1468,14 +1434,11 @@
       <c r="H13" s="1">
         <v>0</v>
       </c>
-      <c r="I13" s="1">
-        <v>0</v>
+      <c r="I13" s="1" t="s">
+        <v>25</v>
       </c>
       <c r="J13" s="1" t="s">
-        <v>26</v>
-      </c>
-      <c r="K13" s="1" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
     </row>
     <row r="14" s="1" customFormat="1" customHeight="1"/>
@@ -1488,7 +1451,7 @@
     <row r="21" s="1" customFormat="1" customHeight="1"/>
   </sheetData>
   <dataValidations count="1">
-    <dataValidation type="custom" allowBlank="1" showErrorMessage="1" errorTitle="拒绝重复输入" error="当前输入的内容，与本区域的其他单元格内容重复。" sqref="D3 E3 F3 G3 H3 D4 E4 F4 G4 H4 D5 E5 F5 G5 C3:C5" errorStyle="warning">
+    <dataValidation type="custom" allowBlank="1" showErrorMessage="1" errorTitle="拒绝重复输入" error="当前输入的内容，与本区域的其他单元格内容重复。" sqref="D3 E3 F3 G3 D4 E4 F4 G4 D5 E5 F5 C3:C5" errorStyle="warning">
       <formula1>COUNTIF($A:$A,C3)&lt;2</formula1>
     </dataValidation>
   </dataValidations>

--- a/Excel/AurasAttrConfig.xlsx
+++ b/Excel/AurasAttrConfig.xlsx
@@ -62,7 +62,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="40" uniqueCount="26">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="40" uniqueCount="27">
   <si>
     <t>ID</t>
   </si>
@@ -139,7 +139,10 @@
     <t>友方减伤倍率增加{0}%</t>
   </si>
   <si>
-    <t>未设定</t>
+    <t>命中光环</t>
+  </si>
+  <si>
+    <t>友方命中概率增加{0}%</t>
   </si>
 </sst>
 </file>
@@ -1113,7 +1116,7 @@
   <dimension ref="A1:K21"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H24" sqref="H24"/>
+      <selection activeCell="D19" sqref="D19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="16" customHeight="1"/>
@@ -1426,19 +1429,19 @@
         <v>1</v>
       </c>
       <c r="F13" s="1">
-        <v>0</v>
+        <v>32</v>
       </c>
       <c r="G13" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H13" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I13" s="1" t="s">
         <v>25</v>
       </c>
       <c r="J13" s="1" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
     </row>
     <row r="14" s="1" customFormat="1" customHeight="1"/>
@@ -1451,7 +1454,7 @@
     <row r="21" s="1" customFormat="1" customHeight="1"/>
   </sheetData>
   <dataValidations count="1">
-    <dataValidation type="custom" allowBlank="1" showErrorMessage="1" errorTitle="拒绝重复输入" error="当前输入的内容，与本区域的其他单元格内容重复。" sqref="D3 E3 F3 G3 D4 E4 F4 G4 D5 E5 F5 C3:C5" errorStyle="warning">
+    <dataValidation type="custom" allowBlank="1" showErrorMessage="1" errorTitle="拒绝重复输入" error="当前输入的内容，与本区域的其他单元格内容重复。" sqref="D3:G3 E4:G4 E5:F5 C3:C5 D4:D5" errorStyle="warning">
       <formula1>COUNTIF($A:$A,C3)&lt;2</formula1>
     </dataValidation>
   </dataValidations>

--- a/Excel/AurasAttrConfig.xlsx
+++ b/Excel/AurasAttrConfig.xlsx
@@ -62,7 +62,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="40" uniqueCount="27">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="40" uniqueCount="28">
   <si>
     <t>ID</t>
   </si>
@@ -92,6 +92,9 @@
   </si>
   <si>
     <t>int</t>
+  </si>
+  <si>
+    <t>double</t>
   </si>
   <si>
     <t>string</t>
@@ -1116,7 +1119,7 @@
   <dimension ref="A1:K21"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D19" sqref="D19"/>
+      <selection activeCell="H14" sqref="H14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="16" customHeight="1"/>
@@ -1226,13 +1229,13 @@
         <v>9</v>
       </c>
       <c r="H5" s="4" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="I5" s="4" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="J5" s="4" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="K5" s="2"/>
     </row>
@@ -1256,10 +1259,10 @@
         <v>1</v>
       </c>
       <c r="I6" s="1" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="J6" s="1" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
     </row>
     <row r="7" s="1" customFormat="1" customHeight="1" spans="3:10">
@@ -1282,10 +1285,10 @@
         <v>1</v>
       </c>
       <c r="I7" s="1" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="J7" s="1" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
     </row>
     <row r="8" s="1" customFormat="1" customHeight="1" spans="3:10">
@@ -1308,10 +1311,10 @@
         <v>1</v>
       </c>
       <c r="I8" s="1" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="J8" s="1" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
     </row>
     <row r="9" s="1" customFormat="1" customHeight="1" spans="3:10">
@@ -1334,10 +1337,10 @@
         <v>3</v>
       </c>
       <c r="I9" s="1" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="J9" s="1" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
     </row>
     <row r="10" s="1" customFormat="1" customHeight="1" spans="3:10">
@@ -1360,10 +1363,10 @@
         <v>1</v>
       </c>
       <c r="I10" s="1" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="J10" s="1" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
     </row>
     <row r="11" s="1" customFormat="1" customHeight="1" spans="3:10">
@@ -1386,10 +1389,10 @@
         <v>1</v>
       </c>
       <c r="I11" s="1" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="J11" s="1" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
     </row>
     <row r="12" s="1" customFormat="1" customHeight="1" spans="3:10">
@@ -1412,10 +1415,10 @@
         <v>1</v>
       </c>
       <c r="I12" s="1" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="J12" s="1" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
     </row>
     <row r="13" s="1" customFormat="1" customHeight="1" spans="3:10">
@@ -1435,13 +1438,13 @@
         <v>1</v>
       </c>
       <c r="H13" s="1">
-        <v>1</v>
+        <v>0.5</v>
       </c>
       <c r="I13" s="1" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="J13" s="1" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
     </row>
     <row r="14" s="1" customFormat="1" customHeight="1"/>
